--- a/2025 - Top Political Races and Data.xlsx
+++ b/2025 - Top Political Races and Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01203DD-66E4-43D6-A5AD-F221B0DDCDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58640D19-BD88-4109-A0D1-58954A95F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'State Data Summaries'!$A$2:$BC$52</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -798,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -813,9 +826,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -838,6 +848,14 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,7 +1075,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB3" sqref="BB3"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1331,6 +1349,10 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:55" ht="14.4">
@@ -1340,6 +1362,10 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:55" ht="14.4">
@@ -1349,6 +1375,10 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:55" ht="69.599999999999994">
@@ -1365,123 +1395,123 @@
       <c r="E11" s="7">
         <v>22610726</v>
       </c>
-      <c r="F11" s="8">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="H11" s="8">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="F11" s="20">
+        <v>76.7</v>
+      </c>
+      <c r="G11" s="20">
+        <v>27.4</v>
+      </c>
+      <c r="H11" s="20">
+        <v>3.2</v>
+      </c>
+      <c r="I11" s="20">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>235</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10" t="s">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>234</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="10">
         <v>177</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10" t="s">
+      <c r="S11" s="9"/>
+      <c r="T11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="10">
         <v>115</v>
       </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10" t="s">
+      <c r="V11" s="9"/>
+      <c r="W11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="10">
         <v>114</v>
       </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10" t="s">
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="10">
         <v>105</v>
       </c>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10" t="s">
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AD11" s="11">
+      <c r="AD11" s="10">
         <v>498</v>
       </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10" t="s">
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AG11" s="10">
         <v>455</v>
       </c>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10" t="s">
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AJ11" s="11">
+      <c r="AJ11" s="10">
         <v>428</v>
       </c>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10" t="s">
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AM11" s="11">
+      <c r="AM11" s="10">
         <v>462</v>
       </c>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10" t="s">
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AP11" s="11">
+      <c r="AP11" s="10">
         <v>457</v>
       </c>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10" t="s">
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AS11" s="11">
+      <c r="AS11" s="10">
         <v>282</v>
       </c>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10" t="s">
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AV11" s="11">
+      <c r="AV11" s="10">
         <v>206</v>
       </c>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10" t="s">
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AY11" s="11">
+      <c r="AY11" s="10">
         <v>193</v>
       </c>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10" t="s">
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="BB11" s="11">
+      <c r="BB11" s="10">
         <v>179</v>
       </c>
       <c r="BC11" s="2" t="s">
@@ -1489,7 +1519,7 @@
       </c>
     </row>
     <row r="12" spans="1:55" ht="83.4">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="3"/>
@@ -1502,19 +1532,19 @@
       <c r="E12" s="7">
         <v>11029227</v>
       </c>
-      <c r="F12" s="8">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.111</v>
-      </c>
-      <c r="H12" s="8">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="F12" s="20">
+        <v>58.7</v>
+      </c>
+      <c r="G12" s="20">
+        <v>11.1</v>
+      </c>
+      <c r="H12" s="20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I12" s="20">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>43</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1618,6 +1648,10 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:55" ht="14.4">
@@ -1627,10 +1661,14 @@
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:55" ht="69.599999999999994">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="3"/>
@@ -1643,123 +1681,123 @@
       <c r="E15" s="7">
         <v>12549689</v>
       </c>
-      <c r="F15" s="8">
-        <v>0.76</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="H15" s="8">
-        <v>6.3E-2</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="F15" s="20">
+        <v>76</v>
+      </c>
+      <c r="G15" s="20">
+        <v>19</v>
+      </c>
+      <c r="H15" s="20">
+        <v>6.3</v>
+      </c>
+      <c r="I15" s="20">
+        <v>14.6</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>295</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10" t="s">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="10">
         <v>264</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10" t="s">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="10">
         <v>265</v>
       </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10" t="s">
+      <c r="S15" s="9"/>
+      <c r="T15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="10">
         <v>108</v>
       </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10" t="s">
+      <c r="V15" s="9"/>
+      <c r="W15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="10">
         <v>105</v>
       </c>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10" t="s">
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AA15" s="11">
+      <c r="AA15" s="10">
         <v>105</v>
       </c>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10" t="s">
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AD15" s="11">
+      <c r="AD15" s="10">
         <v>494</v>
       </c>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10" t="s">
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AG15" s="10">
         <v>286</v>
       </c>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="14" t="s">
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AJ15" s="15">
+      <c r="AJ15" s="14">
         <v>296</v>
       </c>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10" t="s">
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AM15" s="11">
+      <c r="AM15" s="10">
         <v>353</v>
       </c>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10" t="s">
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AP15" s="11">
+      <c r="AP15" s="10">
         <v>290</v>
       </c>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10" t="s">
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AS15" s="11">
+      <c r="AS15" s="10">
         <v>207</v>
       </c>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10" t="s">
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AV15" s="11">
+      <c r="AV15" s="10">
         <v>196</v>
       </c>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10" t="s">
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AY15" s="11">
+      <c r="AY15" s="10">
         <v>193</v>
       </c>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10" t="s">
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="BB15" s="11">
+      <c r="BB15" s="10">
         <v>190</v>
       </c>
     </row>
@@ -1770,6 +1808,10 @@
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:54" ht="14.4">
@@ -1780,6 +1822,10 @@
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:54" ht="14.4">
@@ -1790,10 +1836,14 @@
       <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:54" ht="83.4">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1805,123 +1855,123 @@
       <c r="E19" s="7">
         <v>4512310</v>
       </c>
-      <c r="F19" s="8">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="G19" s="8">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I19" s="8">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="F19" s="20">
+        <v>86.7</v>
+      </c>
+      <c r="G19" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="H19" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="I19" s="20">
+        <v>8.5</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>220</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10" t="s">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="10">
         <v>163</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10" t="s">
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="10">
         <v>158</v>
       </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10" t="s">
+      <c r="S19" s="9"/>
+      <c r="T19" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="10">
         <v>106</v>
       </c>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10" t="s">
+      <c r="V19" s="9"/>
+      <c r="W19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="10">
         <v>106</v>
       </c>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10" t="s">
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AA19" s="11">
+      <c r="AA19" s="10">
         <v>107</v>
       </c>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10" t="s">
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AD19" s="11">
+      <c r="AD19" s="10">
         <v>280</v>
       </c>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10" t="s">
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AG19" s="11">
+      <c r="AG19" s="10">
         <v>229</v>
       </c>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10" t="s">
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AJ19" s="11">
+      <c r="AJ19" s="10">
         <v>406</v>
       </c>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10" t="s">
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AM19" s="11">
+      <c r="AM19" s="10">
         <v>285</v>
       </c>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10" t="s">
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AP19" s="11">
+      <c r="AP19" s="10">
         <v>326</v>
       </c>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10" t="s">
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AS19" s="11">
+      <c r="AS19" s="10">
         <v>167</v>
       </c>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10" t="s">
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AV19" s="11">
+      <c r="AV19" s="10">
         <v>278</v>
       </c>
-      <c r="AW19" s="10"/>
-      <c r="AX19" s="10" t="s">
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AY19" s="11">
+      <c r="AY19" s="10">
         <v>262</v>
       </c>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="10" t="s">
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="BB19" s="11">
+      <c r="BB19" s="10">
         <v>234</v>
       </c>
     </row>
@@ -1932,10 +1982,14 @@
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:54" ht="15.75" customHeight="1">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B21" s="3"/>
@@ -1948,123 +2002,123 @@
       <c r="E21" s="7">
         <v>1395722</v>
       </c>
-      <c r="F21" s="8">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="G21" s="8">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I21" s="8">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="F21" s="20">
+        <v>93.7</v>
+      </c>
+      <c r="G21" s="20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="I21" s="20">
+        <v>2.1</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>312</v>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10" t="s">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="10">
         <v>118</v>
       </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10" t="s">
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="10">
         <v>115</v>
       </c>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10" t="s">
+      <c r="S21" s="9"/>
+      <c r="T21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21" s="10">
         <v>112</v>
       </c>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10" t="s">
+      <c r="V21" s="9"/>
+      <c r="W21" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="10">
         <v>111</v>
       </c>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10" t="s">
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AA21" s="11">
+      <c r="AA21" s="10">
         <v>107</v>
       </c>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10" t="s">
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" s="11">
+      <c r="AD21" s="10">
         <v>320</v>
       </c>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10" t="s">
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AG21" s="11">
+      <c r="AG21" s="10">
         <v>241</v>
       </c>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10" t="s">
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AJ21" s="11">
+      <c r="AJ21" s="10">
         <v>223</v>
       </c>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10" t="s">
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AM21" s="11">
+      <c r="AM21" s="10">
         <v>138</v>
       </c>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10" t="s">
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AP21" s="11">
+      <c r="AP21" s="10">
         <v>267</v>
       </c>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10" t="s">
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AS21" s="11">
+      <c r="AS21" s="10">
         <v>227</v>
       </c>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10" t="s">
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="AV21" s="11">
+      <c r="AV21" s="10">
         <v>271</v>
       </c>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10" t="s">
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AY21" s="11">
+      <c r="AY21" s="10">
         <v>245</v>
       </c>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10" t="s">
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BB21" s="11">
+      <c r="BB21" s="10">
         <v>243</v>
       </c>
     </row>
@@ -2075,10 +2129,14 @@
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:54" ht="15.75" customHeight="1">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2090,22 +2148,22 @@
       <c r="E23" s="7">
         <v>7001399</v>
       </c>
-      <c r="F23" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="H23" s="8">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="I23" s="8">
-        <v>9.6000000000000002E-2</v>
+      <c r="F23" s="20">
+        <v>79</v>
+      </c>
+      <c r="G23" s="20">
+        <v>13.5</v>
+      </c>
+      <c r="H23" s="20">
+        <v>7.9</v>
+      </c>
+      <c r="I23" s="20">
+        <v>9.6</v>
       </c>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:54" ht="15.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B24" s="3"/>
@@ -2118,128 +2176,128 @@
       <c r="E24" s="7">
         <v>10037261</v>
       </c>
-      <c r="F24" s="8">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="H24" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="F24" s="20">
+        <v>78.7</v>
+      </c>
+      <c r="G24" s="20">
+        <v>6</v>
+      </c>
+      <c r="H24" s="20">
+        <v>3.6</v>
+      </c>
+      <c r="I24" s="20">
+        <v>14.1</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>480</v>
       </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10" t="s">
+      <c r="M24" s="9"/>
+      <c r="N24" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="10">
         <v>311</v>
       </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10" t="s">
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="10">
         <v>309</v>
       </c>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10" t="s">
+      <c r="S24" s="9"/>
+      <c r="T24" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="10">
         <v>113</v>
       </c>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10" t="s">
+      <c r="V24" s="9"/>
+      <c r="W24" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="X24" s="11">
+      <c r="X24" s="10">
         <v>108</v>
       </c>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10" t="s">
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AA24" s="11">
+      <c r="AA24" s="10">
         <v>107</v>
       </c>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10" t="s">
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AD24" s="11">
+      <c r="AD24" s="10">
         <v>499</v>
       </c>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10" t="s">
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AG24" s="11">
+      <c r="AG24" s="10">
         <v>489</v>
       </c>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10" t="s">
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AJ24" s="11">
+      <c r="AJ24" s="10">
         <v>485</v>
       </c>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10" t="s">
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="AM24" s="11">
+      <c r="AM24" s="10">
         <v>292</v>
       </c>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10" t="s">
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AP24" s="11">
+      <c r="AP24" s="10">
         <v>288</v>
       </c>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10" t="s">
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AS24" s="11">
+      <c r="AS24" s="10">
         <v>272</v>
       </c>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10" t="s">
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="AV24" s="11">
+      <c r="AV24" s="10">
         <v>342</v>
       </c>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10" t="s">
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="AY24" s="11">
+      <c r="AY24" s="10">
         <v>236</v>
       </c>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10" t="s">
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="BB24" s="11">
+      <c r="BB24" s="10">
         <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:54" ht="15.75" customHeight="1">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B25" s="3"/>
@@ -2252,17 +2310,17 @@
       <c r="E25" s="7">
         <v>5737915</v>
       </c>
-      <c r="F25" s="8">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="G25" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H25" s="8">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I25" s="8">
-        <v>7.9000000000000001E-2</v>
+      <c r="F25" s="20">
+        <v>82.3</v>
+      </c>
+      <c r="G25" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="H25" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="I25" s="20">
+        <v>7.9</v>
       </c>
       <c r="J25" s="5"/>
       <c r="AX25" s="2" t="s">
@@ -2279,6 +2337,10 @@
       <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:54" ht="15.75" customHeight="1">
@@ -2288,6 +2350,10 @@
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:54" ht="15.75" customHeight="1">
@@ -2298,6 +2364,10 @@
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:54" ht="15.75" customHeight="1">
@@ -2308,6 +2378,10 @@
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:54" ht="15.75" customHeight="1">
@@ -2317,10 +2391,14 @@
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:54" ht="15.75" customHeight="1">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>142</v>
       </c>
       <c r="B31" s="3"/>
@@ -2333,17 +2411,17 @@
       <c r="E31" s="7">
         <v>1402054</v>
       </c>
-      <c r="F31" s="8">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="G31" s="8">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H31" s="8">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I31" s="8">
-        <v>2.1000000000000001E-2</v>
+      <c r="F31" s="20">
+        <v>92.5</v>
+      </c>
+      <c r="G31" s="20">
+        <v>4.8</v>
+      </c>
+      <c r="H31" s="20">
+        <v>3.1</v>
+      </c>
+      <c r="I31" s="20">
+        <v>2.1</v>
       </c>
       <c r="J31" s="5"/>
       <c r="AU31" s="2" t="s">
@@ -2357,7 +2435,7 @@
       </c>
     </row>
     <row r="32" spans="1:54" ht="15.75" customHeight="1">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2369,19 +2447,19 @@
       <c r="E32" s="7">
         <v>9290841</v>
       </c>
-      <c r="F32" s="8">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0.106</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0.155</v>
-      </c>
-      <c r="J32" s="16" t="s">
+      <c r="F32" s="20">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G32" s="20">
+        <v>22.7</v>
+      </c>
+      <c r="H32" s="20">
+        <v>10.6</v>
+      </c>
+      <c r="I32" s="20">
+        <v>15.5</v>
+      </c>
+      <c r="J32" s="15" t="s">
         <v>146</v>
       </c>
       <c r="K32" s="2" t="s">
@@ -2420,7 +2498,7 @@
       <c r="AA32" s="2">
         <v>123</v>
       </c>
-      <c r="AC32" s="17" t="s">
+      <c r="AC32" s="16" t="s">
         <v>152</v>
       </c>
       <c r="AD32" s="2">
@@ -2479,7 +2557,7 @@
       </c>
     </row>
     <row r="33" spans="1:54" ht="15.75" customHeight="1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>160</v>
       </c>
       <c r="B33" s="3"/>
@@ -2492,17 +2570,17 @@
       <c r="E33" s="7">
         <v>2114371</v>
       </c>
-      <c r="F33" s="8">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="I33" s="8">
-        <v>2.8000000000000001E-2</v>
+      <c r="F33" s="20">
+        <v>80.7</v>
+      </c>
+      <c r="G33" s="20">
+        <v>48.6</v>
+      </c>
+      <c r="H33" s="20">
+        <v>2</v>
+      </c>
+      <c r="I33" s="20">
+        <v>2.8</v>
       </c>
       <c r="J33" s="5"/>
     </row>
@@ -2513,10 +2591,14 @@
       <c r="C34" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:54" ht="15.75" customHeight="1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B35" s="3"/>
@@ -2529,28 +2611,28 @@
       <c r="E35" s="7">
         <v>10835491</v>
       </c>
-      <c r="F35" s="8">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.114</v>
-      </c>
-      <c r="H35" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0.221</v>
-      </c>
-      <c r="J35" s="16" t="s">
+      <c r="F35" s="20">
+        <v>69.8</v>
+      </c>
+      <c r="G35" s="20">
+        <v>11.4</v>
+      </c>
+      <c r="H35" s="20">
+        <v>3.7</v>
+      </c>
+      <c r="I35" s="20">
+        <v>22.1</v>
+      </c>
+      <c r="J35" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" s="16" t="s">
         <v>164</v>
       </c>
       <c r="L35" s="2">
         <v>457</v>
       </c>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="16" t="s">
         <v>165</v>
       </c>
       <c r="O35" s="2">
@@ -2586,13 +2668,13 @@
       <c r="AD35" s="2">
         <v>474</v>
       </c>
-      <c r="AF35" s="18" t="s">
+      <c r="AF35" s="17" t="s">
         <v>169</v>
       </c>
       <c r="AG35" s="2">
         <v>442</v>
       </c>
-      <c r="AI35" s="17" t="s">
+      <c r="AI35" s="16" t="s">
         <v>170</v>
       </c>
       <c r="AJ35" s="2">
@@ -2623,7 +2705,7 @@
         <v>213</v>
       </c>
       <c r="AW35" s="2"/>
-      <c r="AX35" s="18" t="s">
+      <c r="AX35" s="17" t="s">
         <v>174</v>
       </c>
       <c r="AY35" s="2">
@@ -2643,6 +2725,10 @@
       <c r="C36" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:54" ht="15.75" customHeight="1">
@@ -2659,17 +2745,17 @@
       <c r="E37" s="7">
         <v>11785935</v>
       </c>
-      <c r="F37" s="8">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="G37" s="8">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H37" s="8">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0.13400000000000001</v>
+      <c r="F37" s="20">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="G37" s="20">
+        <v>4.8</v>
+      </c>
+      <c r="H37" s="20">
+        <v>2.8</v>
+      </c>
+      <c r="I37" s="20">
+        <v>13.4</v>
       </c>
       <c r="J37" s="5"/>
     </row>
@@ -2680,6 +2766,10 @@
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:54" ht="15.75" customHeight="1">
@@ -2689,6 +2779,10 @@
       <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:54" ht="15.75" customHeight="1">
@@ -2698,6 +2792,10 @@
       <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:54" ht="15.75" customHeight="1">
@@ -2707,6 +2805,10 @@
       <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:54" ht="15.75" customHeight="1">
@@ -2717,6 +2819,10 @@
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:54" ht="15.75" customHeight="1">
@@ -2726,6 +2832,10 @@
       <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:54" ht="15.75" customHeight="1">
@@ -2735,6 +2845,10 @@
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:54" ht="15.75" customHeight="1">
@@ -2745,6 +2859,10 @@
       <c r="C45" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" customHeight="1">
@@ -2754,6 +2872,10 @@
       <c r="C46" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:54" ht="15.75" customHeight="1">
@@ -2763,10 +2885,14 @@
       <c r="C47" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:54" ht="15.75" customHeight="1">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>188</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2778,16 +2904,16 @@
       <c r="E48" s="7">
         <v>8715698</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="18">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="18">
         <v>0.112</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="18">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="18">
         <v>0.2</v>
       </c>
       <c r="J48" s="5"/>
@@ -2799,6 +2925,10 @@
       <c r="C49" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
@@ -2808,6 +2938,10 @@
       <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
@@ -2817,6 +2951,10 @@
       <c r="C51" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
@@ -2826,12 +2964,24 @@
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">

--- a/2025 - Top Political Races and Data.xlsx
+++ b/2025 - Top Political Races and Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unomail-my.sharepoint.com/personal/dvarandani_unomaha_edu/Documents/Upwork/InteractiveMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58640D19-BD88-4109-A0D1-58954A95F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{58640D19-BD88-4109-A0D1-58954A95F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8135909B-5B0A-4CB1-9420-96F46F17AC31}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t>Real Estate Investments</t>
   </si>
   <si>
-    <t>UpArrow</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -705,17 +702,27 @@
   </si>
   <si>
     <t>Top Segments 3 Data</t>
+  </si>
+  <si>
+    <t>Eligible Voter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,6 +778,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -792,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -807,55 +828,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,6 +910,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1071,11 +1114,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BC1000"/>
+  <dimension ref="A1:BD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1136,12 +1179,13 @@
     <col min="55" max="55" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="14.4">
+    <row r="1" spans="1:56" thickBot="1">
       <c r="E1" s="1"/>
       <c r="K1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:55" ht="14.4">
+      <c r="BD1" s="20"/>
+    </row>
+    <row r="2" spans="1:56" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1171,132 +1215,135 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AO2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AU2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AX2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="AZ2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BA2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:55" ht="14.4">
+      <c r="BD2" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" ht="14.4">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1305,7 +1352,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:55" ht="14.4">
+    <row r="4" spans="1:56" ht="14.4">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1315,7 +1362,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:55" ht="14.4">
+    <row r="5" spans="1:56" ht="14.4">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1324,7 +1371,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:55" ht="14.4">
+    <row r="6" spans="1:56" ht="14.4">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1333,7 +1380,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:55" ht="14.4">
+    <row r="7" spans="1:56" ht="14.4">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1342,46 +1389,34 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:55" ht="14.4">
+    <row r="8" spans="1:56" ht="14.4">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:55" ht="14.4">
+    <row r="9" spans="1:56" ht="14.4">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:55" ht="14.4">
+    <row r="10" spans="1:56" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:55" ht="69.599999999999994">
+    <row r="11" spans="1:56" ht="70.2" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1393,18 +1428,18 @@
         <v>22</v>
       </c>
       <c r="E11" s="7">
-        <v>22610726</v>
-      </c>
-      <c r="F11" s="20">
+        <v>22610727</v>
+      </c>
+      <c r="F11" s="18">
         <v>76.7</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="18">
         <v>27.4</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="18">
         <v>3.2</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="18">
         <v>16.899999999999999</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -1514,483 +1549,493 @@
       <c r="BB11" s="10">
         <v>179</v>
       </c>
-      <c r="BC11" s="2" t="s">
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="21">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" ht="84" thickBot="1">
+      <c r="A12" s="11" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" ht="83.4">
-      <c r="A12" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="7">
         <v>11029227</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>58.7</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="18">
         <v>11.1</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="18">
         <v>33.200000000000003</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="L12" s="2">
         <v>459</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O12" s="2">
         <v>429</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12" s="2">
         <v>317</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U12" s="2">
         <v>115</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X12" s="2">
         <v>113</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA12" s="2">
         <v>112</v>
       </c>
       <c r="AB12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="AD12" s="2">
         <v>317</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG12" s="2">
         <v>240</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AM12" s="2">
         <v>387</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP12" s="2">
         <v>262</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AS12" s="2">
         <v>462</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV12" s="2">
         <v>157</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AX12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY12" s="2">
         <v>182</v>
       </c>
       <c r="BA12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BB12" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="13" spans="1:55" ht="14.4">
+      <c r="BD12" s="21">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" ht="14.4">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:55" ht="14.4">
+    <row r="14" spans="1:56" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:55" ht="69.599999999999994">
+    <row r="15" spans="1:56" ht="70.2" thickBot="1">
       <c r="A15" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="7">
         <v>12549689</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="18">
         <v>76</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="18">
         <v>19</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <v>6.3</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="18">
         <v>14.6</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="L15" s="10">
         <v>295</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O15" s="10">
         <v>264</v>
       </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R15" s="10">
         <v>265</v>
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U15" s="10">
         <v>108</v>
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X15" s="10">
         <v>105</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA15" s="10">
         <v>105</v>
       </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD15" s="10">
         <v>494</v>
       </c>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG15" s="10">
         <v>286</v>
       </c>
       <c r="AH15" s="9"/>
       <c r="AI15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ15" s="14">
         <v>296</v>
       </c>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM15" s="10">
         <v>353</v>
       </c>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AP15" s="10">
         <v>290</v>
       </c>
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AS15" s="10">
         <v>207</v>
       </c>
       <c r="AT15" s="9"/>
       <c r="AU15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AV15" s="10">
         <v>196</v>
       </c>
       <c r="AW15" s="9"/>
       <c r="AX15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AY15" s="10">
         <v>193</v>
       </c>
       <c r="AZ15" s="9"/>
       <c r="BA15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BB15" s="10">
         <v>190</v>
       </c>
-    </row>
-    <row r="16" spans="1:55" ht="14.4">
+      <c r="BD15" s="21">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" ht="14.4">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:54" ht="14.4">
+    <row r="17" spans="1:56" ht="14.4">
       <c r="A17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:54" ht="14.4">
+    <row r="18" spans="1:56" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:54" ht="83.4">
+    <row r="19" spans="1:56" ht="84" thickBot="1">
       <c r="A19" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="7">
         <v>4512310</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="18">
         <v>86.7</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="18">
         <v>4.5</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="18">
         <v>1.7</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="18">
         <v>8.5</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="L19" s="10">
         <v>220</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O19" s="10">
         <v>163</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R19" s="10">
         <v>158</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U19" s="10">
         <v>106</v>
       </c>
       <c r="V19" s="9"/>
       <c r="W19" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X19" s="10">
         <v>106</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA19" s="10">
         <v>107</v>
       </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD19" s="10">
         <v>280</v>
       </c>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG19" s="10">
         <v>229</v>
       </c>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ19" s="10">
         <v>406</v>
       </c>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM19" s="10">
         <v>285</v>
       </c>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP19" s="10">
         <v>326</v>
       </c>
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS19" s="10">
         <v>167</v>
       </c>
       <c r="AT19" s="9"/>
       <c r="AU19" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AV19" s="10">
         <v>278</v>
       </c>
       <c r="AW19" s="9"/>
       <c r="AX19" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AY19" s="10">
         <v>262</v>
       </c>
       <c r="AZ19" s="9"/>
       <c r="BA19" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BB19" s="10">
         <v>234</v>
       </c>
-    </row>
-    <row r="20" spans="1:54" ht="14.4">
+      <c r="BD19" s="21">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:54" ht="15.75" customHeight="1">
+    <row r="21" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
@@ -2002,37 +2047,37 @@
       <c r="E21" s="7">
         <v>1395722</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="18">
         <v>93.7</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="18">
         <v>1.4</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="18">
         <v>2.1</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="L21" s="10">
         <v>312</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O21" s="10">
         <v>118</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R21" s="10">
         <v>115</v>
@@ -2046,564 +2091,585 @@
       </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X21" s="10">
         <v>111</v>
       </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA21" s="10">
         <v>107</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD21" s="10">
         <v>320</v>
       </c>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG21" s="10">
         <v>241</v>
       </c>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AJ21" s="10">
         <v>223</v>
       </c>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AM21" s="10">
         <v>138</v>
       </c>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP21" s="10">
         <v>267</v>
       </c>
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AS21" s="10">
         <v>227</v>
       </c>
       <c r="AT21" s="9"/>
       <c r="AU21" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AV21" s="10">
         <v>271</v>
       </c>
       <c r="AW21" s="9"/>
       <c r="AX21" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY21" s="10">
         <v>245</v>
       </c>
       <c r="AZ21" s="9"/>
       <c r="BA21" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BB21" s="10">
         <v>243</v>
       </c>
-    </row>
-    <row r="22" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD21" s="21">
+        <v>77.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:54" ht="15.75" customHeight="1">
+    <row r="23" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="7">
         <v>7001399</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="18">
         <v>79</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="18">
         <v>13.5</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="18">
         <v>7.9</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="18">
         <v>9.6</v>
       </c>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD23" s="21">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="7">
         <v>10037261</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="18">
         <v>78.7</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="18">
         <v>6</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="18">
         <v>3.6</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="18">
         <v>14.1</v>
       </c>
       <c r="J24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="L24" s="10">
         <v>480</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O24" s="10">
         <v>311</v>
       </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R24" s="10">
         <v>309</v>
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U24" s="10">
         <v>113</v>
       </c>
       <c r="V24" s="9"/>
       <c r="W24" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X24" s="10">
         <v>108</v>
       </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA24" s="10">
         <v>107</v>
       </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD24" s="10">
         <v>499</v>
       </c>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG24" s="10">
         <v>489</v>
       </c>
       <c r="AH24" s="9"/>
       <c r="AI24" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ24" s="10">
         <v>485</v>
       </c>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM24" s="10">
         <v>292</v>
       </c>
       <c r="AN24" s="9"/>
       <c r="AO24" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AP24" s="10">
         <v>288</v>
       </c>
       <c r="AQ24" s="9"/>
       <c r="AR24" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS24" s="10">
         <v>272</v>
       </c>
       <c r="AT24" s="9"/>
       <c r="AU24" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AV24" s="10">
         <v>342</v>
       </c>
       <c r="AW24" s="9"/>
       <c r="AX24" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AY24" s="10">
         <v>236</v>
       </c>
       <c r="AZ24" s="9"/>
       <c r="BA24" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BB24" s="10">
         <v>228</v>
       </c>
-    </row>
-    <row r="25" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD24" s="21">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="7">
         <v>5737915</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="18">
         <v>82.3</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="18">
         <v>6.5</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="18">
         <v>5.5</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="18">
         <v>7.9</v>
       </c>
       <c r="J25" s="5"/>
       <c r="AX25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AY25" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="26" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD25" s="21">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:54" ht="15.75" customHeight="1">
+    <row r="27" spans="1:56" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:54" ht="15.75" customHeight="1">
+    <row r="28" spans="1:56" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:54" ht="15.75" customHeight="1">
+    <row r="29" spans="1:56" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:54" ht="15.75" customHeight="1">
+    <row r="30" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:54" ht="15.75" customHeight="1">
+    <row r="31" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" s="7">
         <v>1402054</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>92.5</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="18">
         <v>4.8</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="18">
         <v>3.1</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="18">
         <v>2.1</v>
       </c>
       <c r="J31" s="5"/>
       <c r="AU31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AV31" s="2">
         <v>190</v>
       </c>
       <c r="AW31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD31" s="21">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="32" spans="1:54" ht="15.75" customHeight="1">
-      <c r="A32" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E32" s="7">
         <v>9290841</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <v>70.400000000000006</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="18">
         <v>22.7</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="18">
         <v>10.6</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="18">
         <v>15.5</v>
       </c>
       <c r="J32" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="L32" s="2">
         <v>366</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O32" s="2">
         <v>301</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R32" s="2">
         <v>275</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U32" s="2">
         <v>127</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X32" s="2">
         <v>125</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA32" s="2">
         <v>123</v>
       </c>
       <c r="AC32" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD32" s="2">
         <v>423</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG32" s="2">
         <v>418</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AJ32" s="2">
         <v>411</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM32" s="2">
         <v>481</v>
       </c>
       <c r="AO32" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AP32" s="2">
         <v>479</v>
       </c>
       <c r="AR32" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS32" s="2">
         <v>458</v>
       </c>
       <c r="AU32" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AV32" s="2">
         <v>207</v>
       </c>
       <c r="AW32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX32" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="AX32" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="AY32" s="2">
         <v>207</v>
       </c>
       <c r="BA32" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BB32" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD32" s="21">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="7">
         <v>2114371</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="18">
         <v>80.7</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="18">
         <v>48.6</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="18">
         <v>2</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="18">
         <v>2.8</v>
       </c>
       <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD33" s="21">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:54" ht="15.75" customHeight="1">
+    <row r="35" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>22</v>
@@ -2611,35 +2677,35 @@
       <c r="E35" s="7">
         <v>10835491</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="18">
         <v>69.8</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="18">
         <v>11.4</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <v>3.7</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="18">
         <v>22.1</v>
       </c>
       <c r="J35" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>164</v>
       </c>
       <c r="L35" s="2">
         <v>457</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O35" s="2">
         <v>422</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R35" s="2">
         <v>156</v>
@@ -2651,89 +2717,92 @@
         <v>115</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X35" s="2">
         <v>110</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA35" s="2">
         <v>109</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD35" s="2">
         <v>474</v>
       </c>
       <c r="AF35" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG35" s="2">
         <v>442</v>
       </c>
       <c r="AI35" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AJ35" s="2">
         <v>420</v>
       </c>
       <c r="AL35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM35" s="2">
         <v>381</v>
       </c>
       <c r="AO35" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AP35" s="2">
         <v>360</v>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS35" s="2">
         <v>323</v>
       </c>
       <c r="AU35" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AV35" s="2">
         <v>213</v>
       </c>
       <c r="AW35" s="2"/>
       <c r="AX35" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AY35" s="2">
         <v>197</v>
       </c>
       <c r="BA35" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BB35" s="2">
         <v>181</v>
       </c>
-    </row>
-    <row r="36" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD35" s="21">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1">
+    <row r="37" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A37" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
@@ -2745,3009 +2814,3896 @@
       <c r="E37" s="7">
         <v>11785935</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="18">
         <v>80.599999999999994</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="18">
         <v>4.8</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="18">
         <v>2.8</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="18">
         <v>13.4</v>
       </c>
       <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD37" s="21">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:54" ht="15.75" customHeight="1">
+    <row r="39" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD39" s="20"/>
+    </row>
+    <row r="40" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD40" s="20"/>
+    </row>
+    <row r="41" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
       <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD41" s="20"/>
+    </row>
+    <row r="42" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD42" s="20"/>
+    </row>
+    <row r="43" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
       <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD43" s="20"/>
+    </row>
+    <row r="44" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
       <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD44" s="20"/>
+    </row>
+    <row r="45" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
       <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD45" s="20"/>
+    </row>
+    <row r="46" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
       <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD46" s="20"/>
+    </row>
+    <row r="47" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
       <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:54" ht="15.75" customHeight="1">
+      <c r="BD47" s="20"/>
+    </row>
+    <row r="48" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E48" s="7">
         <v>8715698</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="14">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="14">
         <v>0.112</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="14">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="14">
         <v>0.2</v>
       </c>
       <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD48" s="21">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
       <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD49" s="20"/>
+    </row>
+    <row r="50" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
       <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD50" s="20"/>
+    </row>
+    <row r="51" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
       <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD51" s="20"/>
+    </row>
+    <row r="52" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
       <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1">
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
+      <c r="BD52" s="20"/>
+    </row>
+    <row r="53" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1">
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
+      <c r="BD53" s="20"/>
+    </row>
+    <row r="54" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD54" s="20"/>
+    </row>
+    <row r="55" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD55" s="20"/>
+    </row>
+    <row r="56" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD56" s="20"/>
+    </row>
+    <row r="57" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD57" s="20"/>
+    </row>
+    <row r="58" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD58" s="20"/>
+    </row>
+    <row r="59" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD59" s="20"/>
+    </row>
+    <row r="60" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD60" s="20"/>
+    </row>
+    <row r="61" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD61" s="20"/>
+    </row>
+    <row r="62" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD62" s="20"/>
+    </row>
+    <row r="63" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+      <c r="BD63" s="20"/>
+    </row>
+    <row r="64" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD64" s="20"/>
+    </row>
+    <row r="65" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD65" s="20"/>
+    </row>
+    <row r="66" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD66" s="20"/>
+    </row>
+    <row r="67" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD67" s="20"/>
+    </row>
+    <row r="68" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD68" s="20"/>
+    </row>
+    <row r="69" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD69" s="20"/>
+    </row>
+    <row r="70" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD70" s="20"/>
+    </row>
+    <row r="71" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD71" s="20"/>
+    </row>
+    <row r="72" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD72" s="20"/>
+    </row>
+    <row r="73" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD73" s="20"/>
+    </row>
+    <row r="74" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD74" s="20"/>
+    </row>
+    <row r="75" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD75" s="20"/>
+    </row>
+    <row r="76" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD76" s="20"/>
+    </row>
+    <row r="77" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD77" s="20"/>
+    </row>
+    <row r="78" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD78" s="20"/>
+    </row>
+    <row r="79" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD79" s="20"/>
+    </row>
+    <row r="80" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD80" s="20"/>
+    </row>
+    <row r="81" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD81" s="20"/>
+    </row>
+    <row r="82" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD82" s="20"/>
+    </row>
+    <row r="83" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD83" s="20"/>
+    </row>
+    <row r="84" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD84" s="20"/>
+    </row>
+    <row r="85" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD85" s="20"/>
+    </row>
+    <row r="86" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD86" s="20"/>
+    </row>
+    <row r="87" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD87" s="20"/>
+    </row>
+    <row r="88" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J88" s="5"/>
-    </row>
-    <row r="89" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD88" s="20"/>
+    </row>
+    <row r="89" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD89" s="20"/>
+    </row>
+    <row r="90" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD90" s="20"/>
+    </row>
+    <row r="91" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD91" s="20"/>
+    </row>
+    <row r="92" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J92" s="5"/>
-    </row>
-    <row r="93" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD92" s="20"/>
+    </row>
+    <row r="93" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J93" s="5"/>
-    </row>
-    <row r="94" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD93" s="20"/>
+    </row>
+    <row r="94" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J94" s="5"/>
-    </row>
-    <row r="95" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD94" s="20"/>
+    </row>
+    <row r="95" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J95" s="5"/>
-    </row>
-    <row r="96" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD95" s="20"/>
+    </row>
+    <row r="96" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J96" s="5"/>
-    </row>
-    <row r="97" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD96" s="20"/>
+    </row>
+    <row r="97" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J97" s="5"/>
-    </row>
-    <row r="98" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD97" s="20"/>
+    </row>
+    <row r="98" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J98" s="5"/>
-    </row>
-    <row r="99" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD98" s="20"/>
+    </row>
+    <row r="99" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD99" s="20"/>
+    </row>
+    <row r="100" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J100" s="5"/>
-    </row>
-    <row r="101" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD100" s="20"/>
+    </row>
+    <row r="101" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J101" s="5"/>
-    </row>
-    <row r="102" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD101" s="20"/>
+    </row>
+    <row r="102" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J102" s="5"/>
-    </row>
-    <row r="103" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD102" s="20"/>
+    </row>
+    <row r="103" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J103" s="5"/>
-    </row>
-    <row r="104" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD103" s="20"/>
+    </row>
+    <row r="104" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J104" s="5"/>
-    </row>
-    <row r="105" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD104" s="20"/>
+    </row>
+    <row r="105" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J105" s="5"/>
-    </row>
-    <row r="106" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD105" s="20"/>
+    </row>
+    <row r="106" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J106" s="5"/>
-    </row>
-    <row r="107" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD106" s="20"/>
+    </row>
+    <row r="107" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J107" s="5"/>
-    </row>
-    <row r="108" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD107" s="20"/>
+    </row>
+    <row r="108" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J108" s="5"/>
-    </row>
-    <row r="109" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD108" s="20"/>
+    </row>
+    <row r="109" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J109" s="5"/>
-    </row>
-    <row r="110" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD109" s="20"/>
+    </row>
+    <row r="110" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J110" s="5"/>
-    </row>
-    <row r="111" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD110" s="20"/>
+    </row>
+    <row r="111" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J111" s="5"/>
-    </row>
-    <row r="112" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD111" s="20"/>
+    </row>
+    <row r="112" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J112" s="5"/>
-    </row>
-    <row r="113" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD112" s="20"/>
+    </row>
+    <row r="113" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J113" s="5"/>
-    </row>
-    <row r="114" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD113" s="20"/>
+    </row>
+    <row r="114" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J114" s="5"/>
-    </row>
-    <row r="115" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD114" s="20"/>
+    </row>
+    <row r="115" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J115" s="5"/>
-    </row>
-    <row r="116" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD115" s="20"/>
+    </row>
+    <row r="116" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J116" s="5"/>
-    </row>
-    <row r="117" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD116" s="20"/>
+    </row>
+    <row r="117" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J117" s="5"/>
-    </row>
-    <row r="118" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD117" s="20"/>
+    </row>
+    <row r="118" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J118" s="5"/>
-    </row>
-    <row r="119" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD118" s="20"/>
+    </row>
+    <row r="119" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J119" s="5"/>
-    </row>
-    <row r="120" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD119" s="20"/>
+    </row>
+    <row r="120" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J120" s="5"/>
-    </row>
-    <row r="121" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD120" s="20"/>
+    </row>
+    <row r="121" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J121" s="5"/>
-    </row>
-    <row r="122" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD121" s="20"/>
+    </row>
+    <row r="122" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J122" s="5"/>
-    </row>
-    <row r="123" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD122" s="20"/>
+    </row>
+    <row r="123" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J123" s="5"/>
-    </row>
-    <row r="124" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD123" s="20"/>
+    </row>
+    <row r="124" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J124" s="5"/>
-    </row>
-    <row r="125" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD124" s="20"/>
+    </row>
+    <row r="125" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J125" s="5"/>
-    </row>
-    <row r="126" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD125" s="20"/>
+    </row>
+    <row r="126" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J126" s="5"/>
-    </row>
-    <row r="127" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD126" s="20"/>
+    </row>
+    <row r="127" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J127" s="5"/>
-    </row>
-    <row r="128" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD127" s="20"/>
+    </row>
+    <row r="128" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J128" s="5"/>
-    </row>
-    <row r="129" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD128" s="20"/>
+    </row>
+    <row r="129" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J129" s="5"/>
-    </row>
-    <row r="130" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD129" s="20"/>
+    </row>
+    <row r="130" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J130" s="5"/>
-    </row>
-    <row r="131" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD130" s="20"/>
+    </row>
+    <row r="131" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J131" s="5"/>
-    </row>
-    <row r="132" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD131" s="20"/>
+    </row>
+    <row r="132" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J132" s="5"/>
-    </row>
-    <row r="133" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD132" s="20"/>
+    </row>
+    <row r="133" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J133" s="5"/>
-    </row>
-    <row r="134" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD133" s="20"/>
+    </row>
+    <row r="134" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J134" s="5"/>
-    </row>
-    <row r="135" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD134" s="20"/>
+    </row>
+    <row r="135" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J135" s="5"/>
-    </row>
-    <row r="136" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD135" s="20"/>
+    </row>
+    <row r="136" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J136" s="5"/>
-    </row>
-    <row r="137" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD136" s="20"/>
+    </row>
+    <row r="137" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J137" s="5"/>
-    </row>
-    <row r="138" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD137" s="20"/>
+    </row>
+    <row r="138" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J138" s="5"/>
-    </row>
-    <row r="139" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD138" s="20"/>
+    </row>
+    <row r="139" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J139" s="5"/>
-    </row>
-    <row r="140" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD139" s="20"/>
+    </row>
+    <row r="140" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J140" s="5"/>
-    </row>
-    <row r="141" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD140" s="20"/>
+    </row>
+    <row r="141" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J141" s="5"/>
-    </row>
-    <row r="142" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD141" s="20"/>
+    </row>
+    <row r="142" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J142" s="5"/>
-    </row>
-    <row r="143" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD142" s="20"/>
+    </row>
+    <row r="143" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J143" s="5"/>
-    </row>
-    <row r="144" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD143" s="20"/>
+    </row>
+    <row r="144" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J144" s="5"/>
-    </row>
-    <row r="145" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD144" s="20"/>
+    </row>
+    <row r="145" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J145" s="5"/>
-    </row>
-    <row r="146" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD145" s="20"/>
+    </row>
+    <row r="146" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J146" s="5"/>
-    </row>
-    <row r="147" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD146" s="20"/>
+    </row>
+    <row r="147" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J147" s="5"/>
-    </row>
-    <row r="148" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD147" s="20"/>
+    </row>
+    <row r="148" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J148" s="5"/>
-    </row>
-    <row r="149" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD148" s="20"/>
+    </row>
+    <row r="149" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J149" s="5"/>
-    </row>
-    <row r="150" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD149" s="20"/>
+    </row>
+    <row r="150" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J150" s="5"/>
-    </row>
-    <row r="151" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD150" s="20"/>
+    </row>
+    <row r="151" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J151" s="5"/>
-    </row>
-    <row r="152" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD151" s="20"/>
+    </row>
+    <row r="152" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J152" s="5"/>
-    </row>
-    <row r="153" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD152" s="20"/>
+    </row>
+    <row r="153" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J153" s="5"/>
-    </row>
-    <row r="154" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD153" s="20"/>
+    </row>
+    <row r="154" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J154" s="5"/>
-    </row>
-    <row r="155" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD154" s="20"/>
+    </row>
+    <row r="155" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J155" s="5"/>
-    </row>
-    <row r="156" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD155" s="20"/>
+    </row>
+    <row r="156" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J156" s="5"/>
-    </row>
-    <row r="157" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD156" s="20"/>
+    </row>
+    <row r="157" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J157" s="5"/>
-    </row>
-    <row r="158" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD157" s="20"/>
+    </row>
+    <row r="158" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J158" s="5"/>
-    </row>
-    <row r="159" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD158" s="20"/>
+    </row>
+    <row r="159" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J159" s="5"/>
-    </row>
-    <row r="160" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD159" s="20"/>
+    </row>
+    <row r="160" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J160" s="5"/>
-    </row>
-    <row r="161" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD160" s="20"/>
+    </row>
+    <row r="161" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J161" s="5"/>
-    </row>
-    <row r="162" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD161" s="20"/>
+    </row>
+    <row r="162" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J162" s="5"/>
-    </row>
-    <row r="163" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD162" s="20"/>
+    </row>
+    <row r="163" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J163" s="5"/>
-    </row>
-    <row r="164" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD163" s="20"/>
+    </row>
+    <row r="164" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J164" s="5"/>
-    </row>
-    <row r="165" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD164" s="20"/>
+    </row>
+    <row r="165" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J165" s="5"/>
-    </row>
-    <row r="166" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD165" s="20"/>
+    </row>
+    <row r="166" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J166" s="5"/>
-    </row>
-    <row r="167" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD166" s="20"/>
+    </row>
+    <row r="167" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J167" s="5"/>
-    </row>
-    <row r="168" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD167" s="20"/>
+    </row>
+    <row r="168" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J168" s="5"/>
-    </row>
-    <row r="169" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD168" s="20"/>
+    </row>
+    <row r="169" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J169" s="5"/>
-    </row>
-    <row r="170" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD169" s="20"/>
+    </row>
+    <row r="170" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J170" s="5"/>
-    </row>
-    <row r="171" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD170" s="20"/>
+    </row>
+    <row r="171" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J171" s="5"/>
-    </row>
-    <row r="172" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD171" s="20"/>
+    </row>
+    <row r="172" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J172" s="5"/>
-    </row>
-    <row r="173" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD172" s="20"/>
+    </row>
+    <row r="173" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J173" s="5"/>
-    </row>
-    <row r="174" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD173" s="20"/>
+    </row>
+    <row r="174" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J174" s="5"/>
-    </row>
-    <row r="175" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD174" s="20"/>
+    </row>
+    <row r="175" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J175" s="5"/>
-    </row>
-    <row r="176" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD175" s="20"/>
+    </row>
+    <row r="176" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J176" s="5"/>
-    </row>
-    <row r="177" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD176" s="20"/>
+    </row>
+    <row r="177" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J177" s="5"/>
-    </row>
-    <row r="178" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD177" s="20"/>
+    </row>
+    <row r="178" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J178" s="5"/>
-    </row>
-    <row r="179" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD178" s="20"/>
+    </row>
+    <row r="179" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J179" s="5"/>
-    </row>
-    <row r="180" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD179" s="20"/>
+    </row>
+    <row r="180" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J180" s="5"/>
-    </row>
-    <row r="181" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD180" s="20"/>
+    </row>
+    <row r="181" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J181" s="5"/>
-    </row>
-    <row r="182" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD181" s="20"/>
+    </row>
+    <row r="182" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J182" s="5"/>
-    </row>
-    <row r="183" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD182" s="20"/>
+    </row>
+    <row r="183" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J183" s="5"/>
-    </row>
-    <row r="184" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD183" s="20"/>
+    </row>
+    <row r="184" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J184" s="5"/>
-    </row>
-    <row r="185" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD184" s="20"/>
+    </row>
+    <row r="185" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J185" s="5"/>
-    </row>
-    <row r="186" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD185" s="20"/>
+    </row>
+    <row r="186" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J186" s="5"/>
-    </row>
-    <row r="187" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD186" s="20"/>
+    </row>
+    <row r="187" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J187" s="5"/>
-    </row>
-    <row r="188" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD187" s="20"/>
+    </row>
+    <row r="188" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J188" s="5"/>
-    </row>
-    <row r="189" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD188" s="20"/>
+    </row>
+    <row r="189" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J189" s="5"/>
-    </row>
-    <row r="190" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD189" s="20"/>
+    </row>
+    <row r="190" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J190" s="5"/>
-    </row>
-    <row r="191" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD190" s="20"/>
+    </row>
+    <row r="191" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J191" s="5"/>
-    </row>
-    <row r="192" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD191" s="20"/>
+    </row>
+    <row r="192" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J192" s="5"/>
-    </row>
-    <row r="193" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD192" s="20"/>
+    </row>
+    <row r="193" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J193" s="5"/>
-    </row>
-    <row r="194" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD193" s="20"/>
+    </row>
+    <row r="194" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J194" s="5"/>
-    </row>
-    <row r="195" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD194" s="20"/>
+    </row>
+    <row r="195" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J195" s="5"/>
-    </row>
-    <row r="196" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD195" s="20"/>
+    </row>
+    <row r="196" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J196" s="5"/>
-    </row>
-    <row r="197" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD196" s="20"/>
+    </row>
+    <row r="197" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J197" s="5"/>
-    </row>
-    <row r="198" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD197" s="20"/>
+    </row>
+    <row r="198" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J198" s="5"/>
-    </row>
-    <row r="199" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD198" s="20"/>
+    </row>
+    <row r="199" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J199" s="5"/>
-    </row>
-    <row r="200" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD199" s="20"/>
+    </row>
+    <row r="200" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J200" s="5"/>
-    </row>
-    <row r="201" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD200" s="20"/>
+    </row>
+    <row r="201" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J201" s="5"/>
-    </row>
-    <row r="202" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD201" s="20"/>
+    </row>
+    <row r="202" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J202" s="5"/>
-    </row>
-    <row r="203" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD202" s="20"/>
+    </row>
+    <row r="203" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J203" s="5"/>
-    </row>
-    <row r="204" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD203" s="20"/>
+    </row>
+    <row r="204" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J204" s="5"/>
-    </row>
-    <row r="205" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD204" s="20"/>
+    </row>
+    <row r="205" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J205" s="5"/>
-    </row>
-    <row r="206" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD205" s="20"/>
+    </row>
+    <row r="206" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J206" s="5"/>
-    </row>
-    <row r="207" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD206" s="20"/>
+    </row>
+    <row r="207" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J207" s="5"/>
-    </row>
-    <row r="208" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD207" s="20"/>
+    </row>
+    <row r="208" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J208" s="5"/>
-    </row>
-    <row r="209" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD208" s="20"/>
+    </row>
+    <row r="209" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J209" s="5"/>
-    </row>
-    <row r="210" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD209" s="20"/>
+    </row>
+    <row r="210" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J210" s="5"/>
-    </row>
-    <row r="211" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD210" s="20"/>
+    </row>
+    <row r="211" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J211" s="5"/>
-    </row>
-    <row r="212" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD211" s="20"/>
+    </row>
+    <row r="212" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J212" s="5"/>
-    </row>
-    <row r="213" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD212" s="20"/>
+    </row>
+    <row r="213" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J213" s="5"/>
-    </row>
-    <row r="214" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD213" s="20"/>
+    </row>
+    <row r="214" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J214" s="5"/>
-    </row>
-    <row r="215" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD214" s="20"/>
+    </row>
+    <row r="215" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J215" s="5"/>
-    </row>
-    <row r="216" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD215" s="20"/>
+    </row>
+    <row r="216" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J216" s="5"/>
-    </row>
-    <row r="217" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD216" s="20"/>
+    </row>
+    <row r="217" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J217" s="5"/>
-    </row>
-    <row r="218" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD217" s="20"/>
+    </row>
+    <row r="218" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J218" s="5"/>
-    </row>
-    <row r="219" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD218" s="20"/>
+    </row>
+    <row r="219" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J219" s="5"/>
-    </row>
-    <row r="220" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD219" s="20"/>
+    </row>
+    <row r="220" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J220" s="5"/>
-    </row>
-    <row r="221" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD220" s="20"/>
+    </row>
+    <row r="221" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J221" s="5"/>
-    </row>
-    <row r="222" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD221" s="20"/>
+    </row>
+    <row r="222" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J222" s="5"/>
-    </row>
-    <row r="223" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD222" s="20"/>
+    </row>
+    <row r="223" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J223" s="5"/>
-    </row>
-    <row r="224" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD223" s="20"/>
+    </row>
+    <row r="224" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J224" s="5"/>
-    </row>
-    <row r="225" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD224" s="20"/>
+    </row>
+    <row r="225" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J225" s="5"/>
-    </row>
-    <row r="226" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD225" s="20"/>
+    </row>
+    <row r="226" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J226" s="5"/>
-    </row>
-    <row r="227" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD226" s="20"/>
+    </row>
+    <row r="227" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J227" s="5"/>
-    </row>
-    <row r="228" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD227" s="20"/>
+    </row>
+    <row r="228" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J228" s="5"/>
-    </row>
-    <row r="229" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD228" s="20"/>
+    </row>
+    <row r="229" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J229" s="5"/>
-    </row>
-    <row r="230" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD229" s="20"/>
+    </row>
+    <row r="230" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J230" s="5"/>
-    </row>
-    <row r="231" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD230" s="20"/>
+    </row>
+    <row r="231" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J231" s="5"/>
-    </row>
-    <row r="232" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD231" s="20"/>
+    </row>
+    <row r="232" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J232" s="5"/>
-    </row>
-    <row r="233" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD232" s="20"/>
+    </row>
+    <row r="233" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J233" s="5"/>
-    </row>
-    <row r="234" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD233" s="20"/>
+    </row>
+    <row r="234" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J234" s="5"/>
-    </row>
-    <row r="235" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD234" s="20"/>
+    </row>
+    <row r="235" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J235" s="5"/>
-    </row>
-    <row r="236" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD235" s="20"/>
+    </row>
+    <row r="236" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J236" s="5"/>
-    </row>
-    <row r="237" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD236" s="20"/>
+    </row>
+    <row r="237" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J237" s="5"/>
-    </row>
-    <row r="238" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD237" s="20"/>
+    </row>
+    <row r="238" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J238" s="5"/>
-    </row>
-    <row r="239" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD238" s="20"/>
+    </row>
+    <row r="239" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J239" s="5"/>
-    </row>
-    <row r="240" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD239" s="20"/>
+    </row>
+    <row r="240" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J240" s="5"/>
-    </row>
-    <row r="241" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD240" s="20"/>
+    </row>
+    <row r="241" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J241" s="5"/>
-    </row>
-    <row r="242" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD241" s="20"/>
+    </row>
+    <row r="242" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J242" s="5"/>
-    </row>
-    <row r="243" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD242" s="20"/>
+    </row>
+    <row r="243" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J243" s="5"/>
-    </row>
-    <row r="244" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD243" s="20"/>
+    </row>
+    <row r="244" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J244" s="5"/>
-    </row>
-    <row r="245" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD244" s="20"/>
+    </row>
+    <row r="245" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J245" s="5"/>
-    </row>
-    <row r="246" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD245" s="20"/>
+    </row>
+    <row r="246" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J246" s="5"/>
-    </row>
-    <row r="247" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD246" s="20"/>
+    </row>
+    <row r="247" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J247" s="5"/>
-    </row>
-    <row r="248" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD247" s="20"/>
+    </row>
+    <row r="248" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J248" s="5"/>
-    </row>
-    <row r="249" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD248" s="20"/>
+    </row>
+    <row r="249" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J249" s="5"/>
-    </row>
-    <row r="250" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD249" s="20"/>
+    </row>
+    <row r="250" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J250" s="5"/>
-    </row>
-    <row r="251" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD250" s="20"/>
+    </row>
+    <row r="251" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J251" s="5"/>
-    </row>
-    <row r="252" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD251" s="20"/>
+    </row>
+    <row r="252" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J252" s="5"/>
-    </row>
-    <row r="253" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD252" s="20"/>
+    </row>
+    <row r="253" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J253" s="5"/>
-    </row>
-    <row r="254" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD253" s="20"/>
+    </row>
+    <row r="254" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J254" s="5"/>
-    </row>
-    <row r="255" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD254" s="20"/>
+    </row>
+    <row r="255" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J255" s="5"/>
-    </row>
-    <row r="256" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD255" s="20"/>
+    </row>
+    <row r="256" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J256" s="5"/>
-    </row>
-    <row r="257" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD256" s="20"/>
+    </row>
+    <row r="257" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J257" s="5"/>
-    </row>
-    <row r="258" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD257" s="20"/>
+    </row>
+    <row r="258" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J258" s="5"/>
-    </row>
-    <row r="259" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD258" s="20"/>
+    </row>
+    <row r="259" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J259" s="5"/>
-    </row>
-    <row r="260" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD259" s="20"/>
+    </row>
+    <row r="260" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J260" s="5"/>
-    </row>
-    <row r="261" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD260" s="20"/>
+    </row>
+    <row r="261" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J261" s="5"/>
-    </row>
-    <row r="262" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD261" s="20"/>
+    </row>
+    <row r="262" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J262" s="5"/>
-    </row>
-    <row r="263" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD262" s="20"/>
+    </row>
+    <row r="263" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J263" s="5"/>
-    </row>
-    <row r="264" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD263" s="20"/>
+    </row>
+    <row r="264" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J264" s="5"/>
-    </row>
-    <row r="265" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD264" s="20"/>
+    </row>
+    <row r="265" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J265" s="5"/>
-    </row>
-    <row r="266" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD265" s="20"/>
+    </row>
+    <row r="266" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J266" s="5"/>
-    </row>
-    <row r="267" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD266" s="20"/>
+    </row>
+    <row r="267" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J267" s="5"/>
-    </row>
-    <row r="268" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD267" s="20"/>
+    </row>
+    <row r="268" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J268" s="5"/>
-    </row>
-    <row r="269" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD268" s="20"/>
+    </row>
+    <row r="269" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J269" s="5"/>
-    </row>
-    <row r="270" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD269" s="20"/>
+    </row>
+    <row r="270" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J270" s="5"/>
-    </row>
-    <row r="271" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD270" s="20"/>
+    </row>
+    <row r="271" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J271" s="5"/>
-    </row>
-    <row r="272" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD271" s="20"/>
+    </row>
+    <row r="272" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J272" s="5"/>
-    </row>
-    <row r="273" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD272" s="20"/>
+    </row>
+    <row r="273" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J273" s="5"/>
-    </row>
-    <row r="274" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD273" s="20"/>
+    </row>
+    <row r="274" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J274" s="5"/>
-    </row>
-    <row r="275" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD274" s="20"/>
+    </row>
+    <row r="275" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J275" s="5"/>
-    </row>
-    <row r="276" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD275" s="20"/>
+    </row>
+    <row r="276" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J276" s="5"/>
-    </row>
-    <row r="277" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD276" s="20"/>
+    </row>
+    <row r="277" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J277" s="5"/>
-    </row>
-    <row r="278" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD277" s="20"/>
+    </row>
+    <row r="278" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J278" s="5"/>
-    </row>
-    <row r="279" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD278" s="20"/>
+    </row>
+    <row r="279" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J279" s="5"/>
-    </row>
-    <row r="280" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD279" s="20"/>
+    </row>
+    <row r="280" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J280" s="5"/>
-    </row>
-    <row r="281" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD280" s="20"/>
+    </row>
+    <row r="281" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J281" s="5"/>
-    </row>
-    <row r="282" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD281" s="20"/>
+    </row>
+    <row r="282" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J282" s="5"/>
-    </row>
-    <row r="283" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD282" s="20"/>
+    </row>
+    <row r="283" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J283" s="5"/>
-    </row>
-    <row r="284" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD283" s="20"/>
+    </row>
+    <row r="284" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J284" s="5"/>
-    </row>
-    <row r="285" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD284" s="20"/>
+    </row>
+    <row r="285" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J285" s="5"/>
-    </row>
-    <row r="286" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD285" s="20"/>
+    </row>
+    <row r="286" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J286" s="5"/>
-    </row>
-    <row r="287" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD286" s="20"/>
+    </row>
+    <row r="287" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J287" s="5"/>
-    </row>
-    <row r="288" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD287" s="20"/>
+    </row>
+    <row r="288" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J288" s="5"/>
-    </row>
-    <row r="289" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD288" s="20"/>
+    </row>
+    <row r="289" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J289" s="5"/>
-    </row>
-    <row r="290" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD289" s="20"/>
+    </row>
+    <row r="290" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J290" s="5"/>
-    </row>
-    <row r="291" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD290" s="20"/>
+    </row>
+    <row r="291" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J291" s="5"/>
-    </row>
-    <row r="292" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD291" s="20"/>
+    </row>
+    <row r="292" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J292" s="5"/>
-    </row>
-    <row r="293" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD292" s="20"/>
+    </row>
+    <row r="293" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J293" s="5"/>
-    </row>
-    <row r="294" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD293" s="20"/>
+    </row>
+    <row r="294" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J294" s="5"/>
-    </row>
-    <row r="295" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD294" s="20"/>
+    </row>
+    <row r="295" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J295" s="5"/>
-    </row>
-    <row r="296" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD295" s="20"/>
+    </row>
+    <row r="296" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J296" s="5"/>
-    </row>
-    <row r="297" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD296" s="20"/>
+    </row>
+    <row r="297" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J297" s="5"/>
-    </row>
-    <row r="298" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD297" s="20"/>
+    </row>
+    <row r="298" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J298" s="5"/>
-    </row>
-    <row r="299" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD298" s="20"/>
+    </row>
+    <row r="299" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J299" s="5"/>
-    </row>
-    <row r="300" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD299" s="20"/>
+    </row>
+    <row r="300" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J300" s="5"/>
-    </row>
-    <row r="301" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD300" s="20"/>
+    </row>
+    <row r="301" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J301" s="5"/>
-    </row>
-    <row r="302" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD301" s="20"/>
+    </row>
+    <row r="302" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J302" s="5"/>
-    </row>
-    <row r="303" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD302" s="20"/>
+    </row>
+    <row r="303" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J303" s="5"/>
-    </row>
-    <row r="304" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD303" s="20"/>
+    </row>
+    <row r="304" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J304" s="5"/>
-    </row>
-    <row r="305" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD304" s="20"/>
+    </row>
+    <row r="305" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J305" s="5"/>
-    </row>
-    <row r="306" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD305" s="20"/>
+    </row>
+    <row r="306" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J306" s="5"/>
-    </row>
-    <row r="307" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD306" s="20"/>
+    </row>
+    <row r="307" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J307" s="5"/>
-    </row>
-    <row r="308" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD307" s="20"/>
+    </row>
+    <row r="308" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J308" s="5"/>
-    </row>
-    <row r="309" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD308" s="20"/>
+    </row>
+    <row r="309" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J309" s="5"/>
-    </row>
-    <row r="310" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD309" s="20"/>
+    </row>
+    <row r="310" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J310" s="5"/>
-    </row>
-    <row r="311" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD310" s="20"/>
+    </row>
+    <row r="311" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J311" s="5"/>
-    </row>
-    <row r="312" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD311" s="20"/>
+    </row>
+    <row r="312" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J312" s="5"/>
-    </row>
-    <row r="313" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD312" s="20"/>
+    </row>
+    <row r="313" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J313" s="5"/>
-    </row>
-    <row r="314" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD313" s="20"/>
+    </row>
+    <row r="314" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J314" s="5"/>
-    </row>
-    <row r="315" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD314" s="20"/>
+    </row>
+    <row r="315" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J315" s="5"/>
-    </row>
-    <row r="316" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD315" s="20"/>
+    </row>
+    <row r="316" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J316" s="5"/>
-    </row>
-    <row r="317" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD316" s="20"/>
+    </row>
+    <row r="317" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J317" s="5"/>
-    </row>
-    <row r="318" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD317" s="20"/>
+    </row>
+    <row r="318" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J318" s="5"/>
-    </row>
-    <row r="319" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD318" s="20"/>
+    </row>
+    <row r="319" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J319" s="5"/>
-    </row>
-    <row r="320" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD319" s="20"/>
+    </row>
+    <row r="320" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J320" s="5"/>
-    </row>
-    <row r="321" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD320" s="20"/>
+    </row>
+    <row r="321" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J321" s="5"/>
-    </row>
-    <row r="322" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD321" s="20"/>
+    </row>
+    <row r="322" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J322" s="5"/>
-    </row>
-    <row r="323" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD322" s="20"/>
+    </row>
+    <row r="323" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J323" s="5"/>
-    </row>
-    <row r="324" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD323" s="20"/>
+    </row>
+    <row r="324" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J324" s="5"/>
-    </row>
-    <row r="325" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD324" s="20"/>
+    </row>
+    <row r="325" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J325" s="5"/>
-    </row>
-    <row r="326" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD325" s="20"/>
+    </row>
+    <row r="326" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J326" s="5"/>
-    </row>
-    <row r="327" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD326" s="20"/>
+    </row>
+    <row r="327" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J327" s="5"/>
-    </row>
-    <row r="328" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD327" s="20"/>
+    </row>
+    <row r="328" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J328" s="5"/>
-    </row>
-    <row r="329" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD328" s="20"/>
+    </row>
+    <row r="329" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J329" s="5"/>
-    </row>
-    <row r="330" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD329" s="20"/>
+    </row>
+    <row r="330" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J330" s="5"/>
-    </row>
-    <row r="331" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD330" s="20"/>
+    </row>
+    <row r="331" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J331" s="5"/>
-    </row>
-    <row r="332" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD331" s="20"/>
+    </row>
+    <row r="332" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J332" s="5"/>
-    </row>
-    <row r="333" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD332" s="20"/>
+    </row>
+    <row r="333" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J333" s="5"/>
-    </row>
-    <row r="334" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD333" s="20"/>
+    </row>
+    <row r="334" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J334" s="5"/>
-    </row>
-    <row r="335" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD334" s="20"/>
+    </row>
+    <row r="335" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J335" s="5"/>
-    </row>
-    <row r="336" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD335" s="20"/>
+    </row>
+    <row r="336" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J336" s="5"/>
-    </row>
-    <row r="337" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD336" s="20"/>
+    </row>
+    <row r="337" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J337" s="5"/>
-    </row>
-    <row r="338" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD337" s="20"/>
+    </row>
+    <row r="338" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J338" s="5"/>
-    </row>
-    <row r="339" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD338" s="20"/>
+    </row>
+    <row r="339" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J339" s="5"/>
-    </row>
-    <row r="340" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD339" s="20"/>
+    </row>
+    <row r="340" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J340" s="5"/>
-    </row>
-    <row r="341" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD340" s="20"/>
+    </row>
+    <row r="341" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J341" s="5"/>
-    </row>
-    <row r="342" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD341" s="20"/>
+    </row>
+    <row r="342" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J342" s="5"/>
-    </row>
-    <row r="343" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD342" s="20"/>
+    </row>
+    <row r="343" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J343" s="5"/>
-    </row>
-    <row r="344" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD343" s="20"/>
+    </row>
+    <row r="344" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J344" s="5"/>
-    </row>
-    <row r="345" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD344" s="20"/>
+    </row>
+    <row r="345" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J345" s="5"/>
-    </row>
-    <row r="346" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD345" s="20"/>
+    </row>
+    <row r="346" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J346" s="5"/>
-    </row>
-    <row r="347" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD346" s="20"/>
+    </row>
+    <row r="347" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J347" s="5"/>
-    </row>
-    <row r="348" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD347" s="20"/>
+    </row>
+    <row r="348" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J348" s="5"/>
-    </row>
-    <row r="349" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD348" s="20"/>
+    </row>
+    <row r="349" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J349" s="5"/>
-    </row>
-    <row r="350" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD349" s="20"/>
+    </row>
+    <row r="350" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J350" s="5"/>
-    </row>
-    <row r="351" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD350" s="20"/>
+    </row>
+    <row r="351" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J351" s="5"/>
-    </row>
-    <row r="352" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD351" s="20"/>
+    </row>
+    <row r="352" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J352" s="5"/>
-    </row>
-    <row r="353" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD352" s="20"/>
+    </row>
+    <row r="353" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J353" s="5"/>
-    </row>
-    <row r="354" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD353" s="20"/>
+    </row>
+    <row r="354" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J354" s="5"/>
-    </row>
-    <row r="355" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD354" s="20"/>
+    </row>
+    <row r="355" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J355" s="5"/>
-    </row>
-    <row r="356" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD355" s="20"/>
+    </row>
+    <row r="356" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J356" s="5"/>
-    </row>
-    <row r="357" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD356" s="20"/>
+    </row>
+    <row r="357" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J357" s="5"/>
-    </row>
-    <row r="358" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD357" s="20"/>
+    </row>
+    <row r="358" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J358" s="5"/>
-    </row>
-    <row r="359" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD358" s="20"/>
+    </row>
+    <row r="359" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J359" s="5"/>
-    </row>
-    <row r="360" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD359" s="20"/>
+    </row>
+    <row r="360" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J360" s="5"/>
-    </row>
-    <row r="361" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD360" s="20"/>
+    </row>
+    <row r="361" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J361" s="5"/>
-    </row>
-    <row r="362" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD361" s="20"/>
+    </row>
+    <row r="362" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J362" s="5"/>
-    </row>
-    <row r="363" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD362" s="20"/>
+    </row>
+    <row r="363" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J363" s="5"/>
-    </row>
-    <row r="364" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD363" s="20"/>
+    </row>
+    <row r="364" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J364" s="5"/>
-    </row>
-    <row r="365" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD364" s="20"/>
+    </row>
+    <row r="365" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J365" s="5"/>
-    </row>
-    <row r="366" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD365" s="20"/>
+    </row>
+    <row r="366" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J366" s="5"/>
-    </row>
-    <row r="367" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD366" s="20"/>
+    </row>
+    <row r="367" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J367" s="5"/>
-    </row>
-    <row r="368" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD367" s="20"/>
+    </row>
+    <row r="368" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J368" s="5"/>
-    </row>
-    <row r="369" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD368" s="20"/>
+    </row>
+    <row r="369" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J369" s="5"/>
-    </row>
-    <row r="370" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD369" s="20"/>
+    </row>
+    <row r="370" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J370" s="5"/>
-    </row>
-    <row r="371" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD370" s="20"/>
+    </row>
+    <row r="371" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J371" s="5"/>
-    </row>
-    <row r="372" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD371" s="20"/>
+    </row>
+    <row r="372" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J372" s="5"/>
-    </row>
-    <row r="373" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD372" s="20"/>
+    </row>
+    <row r="373" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J373" s="5"/>
-    </row>
-    <row r="374" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD373" s="20"/>
+    </row>
+    <row r="374" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J374" s="5"/>
-    </row>
-    <row r="375" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD374" s="20"/>
+    </row>
+    <row r="375" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J375" s="5"/>
-    </row>
-    <row r="376" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD375" s="20"/>
+    </row>
+    <row r="376" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J376" s="5"/>
-    </row>
-    <row r="377" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD376" s="20"/>
+    </row>
+    <row r="377" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J377" s="5"/>
-    </row>
-    <row r="378" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD377" s="20"/>
+    </row>
+    <row r="378" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J378" s="5"/>
-    </row>
-    <row r="379" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD378" s="20"/>
+    </row>
+    <row r="379" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J379" s="5"/>
-    </row>
-    <row r="380" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD379" s="20"/>
+    </row>
+    <row r="380" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J380" s="5"/>
-    </row>
-    <row r="381" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD380" s="20"/>
+    </row>
+    <row r="381" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J381" s="5"/>
-    </row>
-    <row r="382" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD381" s="20"/>
+    </row>
+    <row r="382" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J382" s="5"/>
-    </row>
-    <row r="383" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD382" s="20"/>
+    </row>
+    <row r="383" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J383" s="5"/>
-    </row>
-    <row r="384" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD383" s="20"/>
+    </row>
+    <row r="384" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J384" s="5"/>
-    </row>
-    <row r="385" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD384" s="20"/>
+    </row>
+    <row r="385" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J385" s="5"/>
-    </row>
-    <row r="386" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD385" s="20"/>
+    </row>
+    <row r="386" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J386" s="5"/>
-    </row>
-    <row r="387" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD386" s="20"/>
+    </row>
+    <row r="387" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J387" s="5"/>
-    </row>
-    <row r="388" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD387" s="20"/>
+    </row>
+    <row r="388" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J388" s="5"/>
-    </row>
-    <row r="389" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD388" s="20"/>
+    </row>
+    <row r="389" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J389" s="5"/>
-    </row>
-    <row r="390" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD389" s="20"/>
+    </row>
+    <row r="390" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J390" s="5"/>
-    </row>
-    <row r="391" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD390" s="20"/>
+    </row>
+    <row r="391" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J391" s="5"/>
-    </row>
-    <row r="392" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD391" s="20"/>
+    </row>
+    <row r="392" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J392" s="5"/>
-    </row>
-    <row r="393" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD392" s="20"/>
+    </row>
+    <row r="393" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J393" s="5"/>
-    </row>
-    <row r="394" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD393" s="20"/>
+    </row>
+    <row r="394" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J394" s="5"/>
-    </row>
-    <row r="395" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD394" s="20"/>
+    </row>
+    <row r="395" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J395" s="5"/>
-    </row>
-    <row r="396" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD395" s="20"/>
+    </row>
+    <row r="396" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J396" s="5"/>
-    </row>
-    <row r="397" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD396" s="20"/>
+    </row>
+    <row r="397" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J397" s="5"/>
-    </row>
-    <row r="398" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD397" s="20"/>
+    </row>
+    <row r="398" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J398" s="5"/>
-    </row>
-    <row r="399" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD398" s="20"/>
+    </row>
+    <row r="399" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J399" s="5"/>
-    </row>
-    <row r="400" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD399" s="20"/>
+    </row>
+    <row r="400" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J400" s="5"/>
-    </row>
-    <row r="401" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD400" s="20"/>
+    </row>
+    <row r="401" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J401" s="5"/>
-    </row>
-    <row r="402" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD401" s="20"/>
+    </row>
+    <row r="402" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J402" s="5"/>
-    </row>
-    <row r="403" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD402" s="20"/>
+    </row>
+    <row r="403" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J403" s="5"/>
-    </row>
-    <row r="404" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD403" s="20"/>
+    </row>
+    <row r="404" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J404" s="5"/>
-    </row>
-    <row r="405" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD404" s="20"/>
+    </row>
+    <row r="405" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J405" s="5"/>
-    </row>
-    <row r="406" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD405" s="20"/>
+    </row>
+    <row r="406" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J406" s="5"/>
-    </row>
-    <row r="407" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD406" s="20"/>
+    </row>
+    <row r="407" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J407" s="5"/>
-    </row>
-    <row r="408" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD407" s="20"/>
+    </row>
+    <row r="408" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J408" s="5"/>
-    </row>
-    <row r="409" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD408" s="20"/>
+    </row>
+    <row r="409" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J409" s="5"/>
-    </row>
-    <row r="410" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD409" s="20"/>
+    </row>
+    <row r="410" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J410" s="5"/>
-    </row>
-    <row r="411" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD410" s="20"/>
+    </row>
+    <row r="411" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J411" s="5"/>
-    </row>
-    <row r="412" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD411" s="20"/>
+    </row>
+    <row r="412" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J412" s="5"/>
-    </row>
-    <row r="413" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD412" s="20"/>
+    </row>
+    <row r="413" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J413" s="5"/>
-    </row>
-    <row r="414" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD413" s="20"/>
+    </row>
+    <row r="414" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J414" s="5"/>
-    </row>
-    <row r="415" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD414" s="20"/>
+    </row>
+    <row r="415" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J415" s="5"/>
-    </row>
-    <row r="416" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD415" s="20"/>
+    </row>
+    <row r="416" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J416" s="5"/>
-    </row>
-    <row r="417" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD416" s="20"/>
+    </row>
+    <row r="417" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J417" s="5"/>
-    </row>
-    <row r="418" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD417" s="20"/>
+    </row>
+    <row r="418" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J418" s="5"/>
-    </row>
-    <row r="419" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD418" s="20"/>
+    </row>
+    <row r="419" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J419" s="5"/>
-    </row>
-    <row r="420" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD419" s="20"/>
+    </row>
+    <row r="420" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J420" s="5"/>
-    </row>
-    <row r="421" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD420" s="20"/>
+    </row>
+    <row r="421" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J421" s="5"/>
-    </row>
-    <row r="422" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD421" s="20"/>
+    </row>
+    <row r="422" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J422" s="5"/>
-    </row>
-    <row r="423" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD422" s="20"/>
+    </row>
+    <row r="423" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J423" s="5"/>
-    </row>
-    <row r="424" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD423" s="20"/>
+    </row>
+    <row r="424" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J424" s="5"/>
-    </row>
-    <row r="425" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD424" s="20"/>
+    </row>
+    <row r="425" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J425" s="5"/>
-    </row>
-    <row r="426" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD425" s="20"/>
+    </row>
+    <row r="426" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J426" s="5"/>
-    </row>
-    <row r="427" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD426" s="20"/>
+    </row>
+    <row r="427" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J427" s="5"/>
-    </row>
-    <row r="428" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD427" s="20"/>
+    </row>
+    <row r="428" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J428" s="5"/>
-    </row>
-    <row r="429" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD428" s="20"/>
+    </row>
+    <row r="429" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J429" s="5"/>
-    </row>
-    <row r="430" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD429" s="20"/>
+    </row>
+    <row r="430" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J430" s="5"/>
-    </row>
-    <row r="431" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD430" s="20"/>
+    </row>
+    <row r="431" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J431" s="5"/>
-    </row>
-    <row r="432" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD431" s="20"/>
+    </row>
+    <row r="432" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J432" s="5"/>
-    </row>
-    <row r="433" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD432" s="20"/>
+    </row>
+    <row r="433" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J433" s="5"/>
-    </row>
-    <row r="434" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD433" s="20"/>
+    </row>
+    <row r="434" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J434" s="5"/>
-    </row>
-    <row r="435" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD434" s="20"/>
+    </row>
+    <row r="435" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J435" s="5"/>
-    </row>
-    <row r="436" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD435" s="20"/>
+    </row>
+    <row r="436" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J436" s="5"/>
-    </row>
-    <row r="437" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD436" s="20"/>
+    </row>
+    <row r="437" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J437" s="5"/>
-    </row>
-    <row r="438" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD437" s="20"/>
+    </row>
+    <row r="438" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J438" s="5"/>
-    </row>
-    <row r="439" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD438" s="20"/>
+    </row>
+    <row r="439" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J439" s="5"/>
-    </row>
-    <row r="440" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD439" s="20"/>
+    </row>
+    <row r="440" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J440" s="5"/>
-    </row>
-    <row r="441" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD440" s="20"/>
+    </row>
+    <row r="441" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J441" s="5"/>
-    </row>
-    <row r="442" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD441" s="20"/>
+    </row>
+    <row r="442" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J442" s="5"/>
-    </row>
-    <row r="443" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD442" s="20"/>
+    </row>
+    <row r="443" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J443" s="5"/>
-    </row>
-    <row r="444" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD443" s="20"/>
+    </row>
+    <row r="444" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J444" s="5"/>
-    </row>
-    <row r="445" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD444" s="20"/>
+    </row>
+    <row r="445" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J445" s="5"/>
-    </row>
-    <row r="446" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD445" s="20"/>
+    </row>
+    <row r="446" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J446" s="5"/>
-    </row>
-    <row r="447" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD446" s="20"/>
+    </row>
+    <row r="447" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J447" s="5"/>
-    </row>
-    <row r="448" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD447" s="20"/>
+    </row>
+    <row r="448" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J448" s="5"/>
-    </row>
-    <row r="449" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD448" s="20"/>
+    </row>
+    <row r="449" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J449" s="5"/>
-    </row>
-    <row r="450" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD449" s="20"/>
+    </row>
+    <row r="450" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J450" s="5"/>
-    </row>
-    <row r="451" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD450" s="20"/>
+    </row>
+    <row r="451" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J451" s="5"/>
-    </row>
-    <row r="452" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD451" s="20"/>
+    </row>
+    <row r="452" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J452" s="5"/>
-    </row>
-    <row r="453" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD452" s="20"/>
+    </row>
+    <row r="453" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J453" s="5"/>
-    </row>
-    <row r="454" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD453" s="20"/>
+    </row>
+    <row r="454" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J454" s="5"/>
-    </row>
-    <row r="455" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD454" s="20"/>
+    </row>
+    <row r="455" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J455" s="5"/>
-    </row>
-    <row r="456" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD455" s="20"/>
+    </row>
+    <row r="456" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J456" s="5"/>
-    </row>
-    <row r="457" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD456" s="20"/>
+    </row>
+    <row r="457" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J457" s="5"/>
-    </row>
-    <row r="458" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD457" s="20"/>
+    </row>
+    <row r="458" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J458" s="5"/>
-    </row>
-    <row r="459" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD458" s="20"/>
+    </row>
+    <row r="459" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J459" s="5"/>
-    </row>
-    <row r="460" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD459" s="20"/>
+    </row>
+    <row r="460" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J460" s="5"/>
-    </row>
-    <row r="461" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD460" s="20"/>
+    </row>
+    <row r="461" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J461" s="5"/>
-    </row>
-    <row r="462" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD461" s="20"/>
+    </row>
+    <row r="462" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J462" s="5"/>
-    </row>
-    <row r="463" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD462" s="20"/>
+    </row>
+    <row r="463" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J463" s="5"/>
-    </row>
-    <row r="464" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD463" s="20"/>
+    </row>
+    <row r="464" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J464" s="5"/>
-    </row>
-    <row r="465" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD464" s="20"/>
+    </row>
+    <row r="465" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J465" s="5"/>
-    </row>
-    <row r="466" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD465" s="20"/>
+    </row>
+    <row r="466" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J466" s="5"/>
-    </row>
-    <row r="467" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD466" s="20"/>
+    </row>
+    <row r="467" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J467" s="5"/>
-    </row>
-    <row r="468" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD467" s="20"/>
+    </row>
+    <row r="468" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J468" s="5"/>
-    </row>
-    <row r="469" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD468" s="20"/>
+    </row>
+    <row r="469" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J469" s="5"/>
-    </row>
-    <row r="470" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD469" s="20"/>
+    </row>
+    <row r="470" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J470" s="5"/>
-    </row>
-    <row r="471" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD470" s="20"/>
+    </row>
+    <row r="471" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J471" s="5"/>
-    </row>
-    <row r="472" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD471" s="20"/>
+    </row>
+    <row r="472" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J472" s="5"/>
-    </row>
-    <row r="473" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD472" s="20"/>
+    </row>
+    <row r="473" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J473" s="5"/>
-    </row>
-    <row r="474" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD473" s="20"/>
+    </row>
+    <row r="474" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J474" s="5"/>
-    </row>
-    <row r="475" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD474" s="20"/>
+    </row>
+    <row r="475" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J475" s="5"/>
-    </row>
-    <row r="476" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD475" s="20"/>
+    </row>
+    <row r="476" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J476" s="5"/>
-    </row>
-    <row r="477" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD476" s="20"/>
+    </row>
+    <row r="477" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J477" s="5"/>
-    </row>
-    <row r="478" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD477" s="20"/>
+    </row>
+    <row r="478" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J478" s="5"/>
-    </row>
-    <row r="479" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD478" s="20"/>
+    </row>
+    <row r="479" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J479" s="5"/>
-    </row>
-    <row r="480" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD479" s="20"/>
+    </row>
+    <row r="480" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J480" s="5"/>
-    </row>
-    <row r="481" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD480" s="20"/>
+    </row>
+    <row r="481" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J481" s="5"/>
-    </row>
-    <row r="482" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD481" s="20"/>
+    </row>
+    <row r="482" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J482" s="5"/>
-    </row>
-    <row r="483" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD482" s="20"/>
+    </row>
+    <row r="483" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J483" s="5"/>
-    </row>
-    <row r="484" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD483" s="20"/>
+    </row>
+    <row r="484" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J484" s="5"/>
-    </row>
-    <row r="485" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD484" s="20"/>
+    </row>
+    <row r="485" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J485" s="5"/>
-    </row>
-    <row r="486" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD485" s="20"/>
+    </row>
+    <row r="486" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J486" s="5"/>
-    </row>
-    <row r="487" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD486" s="20"/>
+    </row>
+    <row r="487" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J487" s="5"/>
-    </row>
-    <row r="488" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD487" s="20"/>
+    </row>
+    <row r="488" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J488" s="5"/>
-    </row>
-    <row r="489" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD488" s="20"/>
+    </row>
+    <row r="489" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J489" s="5"/>
-    </row>
-    <row r="490" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD489" s="20"/>
+    </row>
+    <row r="490" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J490" s="5"/>
-    </row>
-    <row r="491" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD490" s="20"/>
+    </row>
+    <row r="491" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J491" s="5"/>
-    </row>
-    <row r="492" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD491" s="20"/>
+    </row>
+    <row r="492" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J492" s="5"/>
-    </row>
-    <row r="493" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD492" s="20"/>
+    </row>
+    <row r="493" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J493" s="5"/>
-    </row>
-    <row r="494" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD493" s="20"/>
+    </row>
+    <row r="494" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J494" s="5"/>
-    </row>
-    <row r="495" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD494" s="20"/>
+    </row>
+    <row r="495" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J495" s="5"/>
-    </row>
-    <row r="496" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD495" s="20"/>
+    </row>
+    <row r="496" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J496" s="5"/>
-    </row>
-    <row r="497" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD496" s="20"/>
+    </row>
+    <row r="497" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J497" s="5"/>
-    </row>
-    <row r="498" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD497" s="20"/>
+    </row>
+    <row r="498" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J498" s="5"/>
-    </row>
-    <row r="499" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD498" s="20"/>
+    </row>
+    <row r="499" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J499" s="5"/>
-    </row>
-    <row r="500" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD499" s="20"/>
+    </row>
+    <row r="500" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J500" s="5"/>
-    </row>
-    <row r="501" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD500" s="20"/>
+    </row>
+    <row r="501" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J501" s="5"/>
-    </row>
-    <row r="502" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD501" s="20"/>
+    </row>
+    <row r="502" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J502" s="5"/>
-    </row>
-    <row r="503" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD502" s="20"/>
+    </row>
+    <row r="503" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J503" s="5"/>
-    </row>
-    <row r="504" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD503" s="20"/>
+    </row>
+    <row r="504" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J504" s="5"/>
-    </row>
-    <row r="505" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD504" s="20"/>
+    </row>
+    <row r="505" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J505" s="5"/>
-    </row>
-    <row r="506" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD505" s="20"/>
+    </row>
+    <row r="506" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J506" s="5"/>
-    </row>
-    <row r="507" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD506" s="20"/>
+    </row>
+    <row r="507" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J507" s="5"/>
-    </row>
-    <row r="508" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD507" s="20"/>
+    </row>
+    <row r="508" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J508" s="5"/>
-    </row>
-    <row r="509" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD508" s="20"/>
+    </row>
+    <row r="509" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J509" s="5"/>
-    </row>
-    <row r="510" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD509" s="20"/>
+    </row>
+    <row r="510" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J510" s="5"/>
-    </row>
-    <row r="511" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD510" s="20"/>
+    </row>
+    <row r="511" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J511" s="5"/>
-    </row>
-    <row r="512" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD511" s="20"/>
+    </row>
+    <row r="512" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J512" s="5"/>
-    </row>
-    <row r="513" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD512" s="20"/>
+    </row>
+    <row r="513" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J513" s="5"/>
-    </row>
-    <row r="514" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD513" s="20"/>
+    </row>
+    <row r="514" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J514" s="5"/>
-    </row>
-    <row r="515" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD514" s="20"/>
+    </row>
+    <row r="515" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J515" s="5"/>
-    </row>
-    <row r="516" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD515" s="20"/>
+    </row>
+    <row r="516" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J516" s="5"/>
-    </row>
-    <row r="517" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD516" s="20"/>
+    </row>
+    <row r="517" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J517" s="5"/>
-    </row>
-    <row r="518" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD517" s="20"/>
+    </row>
+    <row r="518" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J518" s="5"/>
-    </row>
-    <row r="519" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD518" s="20"/>
+    </row>
+    <row r="519" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J519" s="5"/>
-    </row>
-    <row r="520" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD519" s="20"/>
+    </row>
+    <row r="520" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J520" s="5"/>
-    </row>
-    <row r="521" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD520" s="20"/>
+    </row>
+    <row r="521" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J521" s="5"/>
-    </row>
-    <row r="522" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD521" s="20"/>
+    </row>
+    <row r="522" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J522" s="5"/>
-    </row>
-    <row r="523" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD522" s="20"/>
+    </row>
+    <row r="523" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J523" s="5"/>
-    </row>
-    <row r="524" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD523" s="20"/>
+    </row>
+    <row r="524" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J524" s="5"/>
-    </row>
-    <row r="525" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD524" s="20"/>
+    </row>
+    <row r="525" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J525" s="5"/>
-    </row>
-    <row r="526" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD525" s="20"/>
+    </row>
+    <row r="526" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J526" s="5"/>
-    </row>
-    <row r="527" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD526" s="20"/>
+    </row>
+    <row r="527" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J527" s="5"/>
-    </row>
-    <row r="528" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD527" s="20"/>
+    </row>
+    <row r="528" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J528" s="5"/>
-    </row>
-    <row r="529" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD528" s="20"/>
+    </row>
+    <row r="529" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J529" s="5"/>
-    </row>
-    <row r="530" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD529" s="20"/>
+    </row>
+    <row r="530" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J530" s="5"/>
-    </row>
-    <row r="531" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD530" s="20"/>
+    </row>
+    <row r="531" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J531" s="5"/>
-    </row>
-    <row r="532" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD531" s="20"/>
+    </row>
+    <row r="532" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J532" s="5"/>
-    </row>
-    <row r="533" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD532" s="20"/>
+    </row>
+    <row r="533" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J533" s="5"/>
-    </row>
-    <row r="534" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD533" s="20"/>
+    </row>
+    <row r="534" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J534" s="5"/>
-    </row>
-    <row r="535" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD534" s="20"/>
+    </row>
+    <row r="535" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J535" s="5"/>
-    </row>
-    <row r="536" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD535" s="20"/>
+    </row>
+    <row r="536" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J536" s="5"/>
-    </row>
-    <row r="537" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD536" s="20"/>
+    </row>
+    <row r="537" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J537" s="5"/>
-    </row>
-    <row r="538" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD537" s="20"/>
+    </row>
+    <row r="538" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J538" s="5"/>
-    </row>
-    <row r="539" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD538" s="20"/>
+    </row>
+    <row r="539" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J539" s="5"/>
-    </row>
-    <row r="540" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD539" s="20"/>
+    </row>
+    <row r="540" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J540" s="5"/>
-    </row>
-    <row r="541" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD540" s="20"/>
+    </row>
+    <row r="541" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J541" s="5"/>
-    </row>
-    <row r="542" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD541" s="20"/>
+    </row>
+    <row r="542" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J542" s="5"/>
-    </row>
-    <row r="543" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD542" s="20"/>
+    </row>
+    <row r="543" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J543" s="5"/>
-    </row>
-    <row r="544" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD543" s="20"/>
+    </row>
+    <row r="544" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J544" s="5"/>
-    </row>
-    <row r="545" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD544" s="20"/>
+    </row>
+    <row r="545" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J545" s="5"/>
-    </row>
-    <row r="546" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD545" s="20"/>
+    </row>
+    <row r="546" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J546" s="5"/>
-    </row>
-    <row r="547" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD546" s="20"/>
+    </row>
+    <row r="547" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J547" s="5"/>
-    </row>
-    <row r="548" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD547" s="20"/>
+    </row>
+    <row r="548" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J548" s="5"/>
-    </row>
-    <row r="549" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD548" s="20"/>
+    </row>
+    <row r="549" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J549" s="5"/>
-    </row>
-    <row r="550" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD549" s="20"/>
+    </row>
+    <row r="550" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J550" s="5"/>
-    </row>
-    <row r="551" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD550" s="20"/>
+    </row>
+    <row r="551" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J551" s="5"/>
-    </row>
-    <row r="552" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD551" s="20"/>
+    </row>
+    <row r="552" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J552" s="5"/>
-    </row>
-    <row r="553" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD552" s="20"/>
+    </row>
+    <row r="553" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J553" s="5"/>
-    </row>
-    <row r="554" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD553" s="20"/>
+    </row>
+    <row r="554" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J554" s="5"/>
-    </row>
-    <row r="555" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD554" s="20"/>
+    </row>
+    <row r="555" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J555" s="5"/>
-    </row>
-    <row r="556" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD555" s="20"/>
+    </row>
+    <row r="556" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J556" s="5"/>
-    </row>
-    <row r="557" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD556" s="20"/>
+    </row>
+    <row r="557" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J557" s="5"/>
-    </row>
-    <row r="558" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD557" s="20"/>
+    </row>
+    <row r="558" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J558" s="5"/>
-    </row>
-    <row r="559" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD558" s="20"/>
+    </row>
+    <row r="559" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J559" s="5"/>
-    </row>
-    <row r="560" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD559" s="20"/>
+    </row>
+    <row r="560" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J560" s="5"/>
-    </row>
-    <row r="561" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD560" s="20"/>
+    </row>
+    <row r="561" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J561" s="5"/>
-    </row>
-    <row r="562" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD561" s="20"/>
+    </row>
+    <row r="562" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J562" s="5"/>
-    </row>
-    <row r="563" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD562" s="20"/>
+    </row>
+    <row r="563" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J563" s="5"/>
-    </row>
-    <row r="564" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD563" s="20"/>
+    </row>
+    <row r="564" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J564" s="5"/>
-    </row>
-    <row r="565" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD564" s="20"/>
+    </row>
+    <row r="565" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J565" s="5"/>
-    </row>
-    <row r="566" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD565" s="20"/>
+    </row>
+    <row r="566" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J566" s="5"/>
-    </row>
-    <row r="567" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD566" s="20"/>
+    </row>
+    <row r="567" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J567" s="5"/>
-    </row>
-    <row r="568" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD567" s="20"/>
+    </row>
+    <row r="568" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J568" s="5"/>
-    </row>
-    <row r="569" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD568" s="20"/>
+    </row>
+    <row r="569" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J569" s="5"/>
-    </row>
-    <row r="570" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD569" s="20"/>
+    </row>
+    <row r="570" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J570" s="5"/>
-    </row>
-    <row r="571" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD570" s="20"/>
+    </row>
+    <row r="571" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J571" s="5"/>
-    </row>
-    <row r="572" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD571" s="20"/>
+    </row>
+    <row r="572" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J572" s="5"/>
-    </row>
-    <row r="573" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD572" s="20"/>
+    </row>
+    <row r="573" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J573" s="5"/>
-    </row>
-    <row r="574" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD573" s="20"/>
+    </row>
+    <row r="574" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J574" s="5"/>
-    </row>
-    <row r="575" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD574" s="20"/>
+    </row>
+    <row r="575" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J575" s="5"/>
-    </row>
-    <row r="576" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD575" s="20"/>
+    </row>
+    <row r="576" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J576" s="5"/>
-    </row>
-    <row r="577" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD576" s="20"/>
+    </row>
+    <row r="577" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J577" s="5"/>
-    </row>
-    <row r="578" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD577" s="20"/>
+    </row>
+    <row r="578" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J578" s="5"/>
-    </row>
-    <row r="579" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD578" s="20"/>
+    </row>
+    <row r="579" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J579" s="5"/>
-    </row>
-    <row r="580" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD579" s="20"/>
+    </row>
+    <row r="580" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J580" s="5"/>
-    </row>
-    <row r="581" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD580" s="20"/>
+    </row>
+    <row r="581" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J581" s="5"/>
-    </row>
-    <row r="582" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD581" s="20"/>
+    </row>
+    <row r="582" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J582" s="5"/>
-    </row>
-    <row r="583" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD582" s="20"/>
+    </row>
+    <row r="583" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J583" s="5"/>
-    </row>
-    <row r="584" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD583" s="20"/>
+    </row>
+    <row r="584" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J584" s="5"/>
-    </row>
-    <row r="585" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD584" s="20"/>
+    </row>
+    <row r="585" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J585" s="5"/>
-    </row>
-    <row r="586" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD585" s="20"/>
+    </row>
+    <row r="586" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J586" s="5"/>
-    </row>
-    <row r="587" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD586" s="20"/>
+    </row>
+    <row r="587" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J587" s="5"/>
-    </row>
-    <row r="588" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD587" s="20"/>
+    </row>
+    <row r="588" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J588" s="5"/>
-    </row>
-    <row r="589" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD588" s="20"/>
+    </row>
+    <row r="589" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J589" s="5"/>
-    </row>
-    <row r="590" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD589" s="20"/>
+    </row>
+    <row r="590" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J590" s="5"/>
-    </row>
-    <row r="591" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD590" s="20"/>
+    </row>
+    <row r="591" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J591" s="5"/>
-    </row>
-    <row r="592" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD591" s="20"/>
+    </row>
+    <row r="592" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J592" s="5"/>
-    </row>
-    <row r="593" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD592" s="20"/>
+    </row>
+    <row r="593" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J593" s="5"/>
-    </row>
-    <row r="594" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD593" s="20"/>
+    </row>
+    <row r="594" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J594" s="5"/>
-    </row>
-    <row r="595" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD594" s="20"/>
+    </row>
+    <row r="595" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J595" s="5"/>
-    </row>
-    <row r="596" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD595" s="20"/>
+    </row>
+    <row r="596" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J596" s="5"/>
-    </row>
-    <row r="597" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD596" s="20"/>
+    </row>
+    <row r="597" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J597" s="5"/>
-    </row>
-    <row r="598" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD597" s="20"/>
+    </row>
+    <row r="598" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J598" s="5"/>
-    </row>
-    <row r="599" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD598" s="20"/>
+    </row>
+    <row r="599" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J599" s="5"/>
-    </row>
-    <row r="600" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD599" s="20"/>
+    </row>
+    <row r="600" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J600" s="5"/>
-    </row>
-    <row r="601" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD600" s="20"/>
+    </row>
+    <row r="601" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J601" s="5"/>
-    </row>
-    <row r="602" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD601" s="20"/>
+    </row>
+    <row r="602" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J602" s="5"/>
-    </row>
-    <row r="603" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD602" s="20"/>
+    </row>
+    <row r="603" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J603" s="5"/>
-    </row>
-    <row r="604" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD603" s="20"/>
+    </row>
+    <row r="604" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J604" s="5"/>
-    </row>
-    <row r="605" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD604" s="20"/>
+    </row>
+    <row r="605" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J605" s="5"/>
-    </row>
-    <row r="606" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD605" s="20"/>
+    </row>
+    <row r="606" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J606" s="5"/>
-    </row>
-    <row r="607" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD606" s="20"/>
+    </row>
+    <row r="607" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J607" s="5"/>
-    </row>
-    <row r="608" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD607" s="20"/>
+    </row>
+    <row r="608" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J608" s="5"/>
-    </row>
-    <row r="609" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD608" s="20"/>
+    </row>
+    <row r="609" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J609" s="5"/>
-    </row>
-    <row r="610" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD609" s="20"/>
+    </row>
+    <row r="610" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J610" s="5"/>
-    </row>
-    <row r="611" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD610" s="20"/>
+    </row>
+    <row r="611" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J611" s="5"/>
-    </row>
-    <row r="612" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD611" s="20"/>
+    </row>
+    <row r="612" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J612" s="5"/>
-    </row>
-    <row r="613" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD612" s="20"/>
+    </row>
+    <row r="613" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J613" s="5"/>
-    </row>
-    <row r="614" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD613" s="20"/>
+    </row>
+    <row r="614" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J614" s="5"/>
-    </row>
-    <row r="615" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD614" s="20"/>
+    </row>
+    <row r="615" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J615" s="5"/>
-    </row>
-    <row r="616" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD615" s="20"/>
+    </row>
+    <row r="616" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J616" s="5"/>
-    </row>
-    <row r="617" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD616" s="20"/>
+    </row>
+    <row r="617" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J617" s="5"/>
-    </row>
-    <row r="618" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD617" s="20"/>
+    </row>
+    <row r="618" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J618" s="5"/>
-    </row>
-    <row r="619" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD618" s="20"/>
+    </row>
+    <row r="619" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J619" s="5"/>
-    </row>
-    <row r="620" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD619" s="20"/>
+    </row>
+    <row r="620" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J620" s="5"/>
-    </row>
-    <row r="621" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD620" s="20"/>
+    </row>
+    <row r="621" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J621" s="5"/>
-    </row>
-    <row r="622" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD621" s="20"/>
+    </row>
+    <row r="622" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J622" s="5"/>
-    </row>
-    <row r="623" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD622" s="20"/>
+    </row>
+    <row r="623" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J623" s="5"/>
-    </row>
-    <row r="624" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD623" s="20"/>
+    </row>
+    <row r="624" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J624" s="5"/>
-    </row>
-    <row r="625" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD624" s="20"/>
+    </row>
+    <row r="625" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J625" s="5"/>
-    </row>
-    <row r="626" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD625" s="20"/>
+    </row>
+    <row r="626" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J626" s="5"/>
-    </row>
-    <row r="627" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD626" s="20"/>
+    </row>
+    <row r="627" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J627" s="5"/>
-    </row>
-    <row r="628" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD627" s="20"/>
+    </row>
+    <row r="628" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J628" s="5"/>
-    </row>
-    <row r="629" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD628" s="20"/>
+    </row>
+    <row r="629" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J629" s="5"/>
-    </row>
-    <row r="630" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD629" s="20"/>
+    </row>
+    <row r="630" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J630" s="5"/>
-    </row>
-    <row r="631" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD630" s="20"/>
+    </row>
+    <row r="631" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J631" s="5"/>
-    </row>
-    <row r="632" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD631" s="20"/>
+    </row>
+    <row r="632" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J632" s="5"/>
-    </row>
-    <row r="633" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD632" s="20"/>
+    </row>
+    <row r="633" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J633" s="5"/>
-    </row>
-    <row r="634" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD633" s="20"/>
+    </row>
+    <row r="634" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J634" s="5"/>
-    </row>
-    <row r="635" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD634" s="20"/>
+    </row>
+    <row r="635" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J635" s="5"/>
-    </row>
-    <row r="636" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD635" s="20"/>
+    </row>
+    <row r="636" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J636" s="5"/>
-    </row>
-    <row r="637" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD636" s="20"/>
+    </row>
+    <row r="637" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J637" s="5"/>
-    </row>
-    <row r="638" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD637" s="20"/>
+    </row>
+    <row r="638" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J638" s="5"/>
-    </row>
-    <row r="639" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD638" s="20"/>
+    </row>
+    <row r="639" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J639" s="5"/>
-    </row>
-    <row r="640" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD639" s="20"/>
+    </row>
+    <row r="640" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J640" s="5"/>
-    </row>
-    <row r="641" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD640" s="20"/>
+    </row>
+    <row r="641" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J641" s="5"/>
-    </row>
-    <row r="642" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD641" s="20"/>
+    </row>
+    <row r="642" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J642" s="5"/>
-    </row>
-    <row r="643" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD642" s="20"/>
+    </row>
+    <row r="643" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J643" s="5"/>
-    </row>
-    <row r="644" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD643" s="20"/>
+    </row>
+    <row r="644" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J644" s="5"/>
-    </row>
-    <row r="645" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD644" s="20"/>
+    </row>
+    <row r="645" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J645" s="5"/>
-    </row>
-    <row r="646" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD645" s="20"/>
+    </row>
+    <row r="646" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J646" s="5"/>
-    </row>
-    <row r="647" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD646" s="20"/>
+    </row>
+    <row r="647" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J647" s="5"/>
-    </row>
-    <row r="648" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD647" s="20"/>
+    </row>
+    <row r="648" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J648" s="5"/>
-    </row>
-    <row r="649" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD648" s="20"/>
+    </row>
+    <row r="649" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J649" s="5"/>
-    </row>
-    <row r="650" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD649" s="20"/>
+    </row>
+    <row r="650" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J650" s="5"/>
-    </row>
-    <row r="651" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD650" s="20"/>
+    </row>
+    <row r="651" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J651" s="5"/>
-    </row>
-    <row r="652" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD651" s="20"/>
+    </row>
+    <row r="652" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J652" s="5"/>
-    </row>
-    <row r="653" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD652" s="20"/>
+    </row>
+    <row r="653" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J653" s="5"/>
-    </row>
-    <row r="654" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD653" s="20"/>
+    </row>
+    <row r="654" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J654" s="5"/>
-    </row>
-    <row r="655" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD654" s="20"/>
+    </row>
+    <row r="655" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J655" s="5"/>
-    </row>
-    <row r="656" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD655" s="20"/>
+    </row>
+    <row r="656" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J656" s="5"/>
-    </row>
-    <row r="657" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD656" s="20"/>
+    </row>
+    <row r="657" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J657" s="5"/>
-    </row>
-    <row r="658" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD657" s="20"/>
+    </row>
+    <row r="658" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J658" s="5"/>
-    </row>
-    <row r="659" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD658" s="20"/>
+    </row>
+    <row r="659" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J659" s="5"/>
-    </row>
-    <row r="660" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD659" s="20"/>
+    </row>
+    <row r="660" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J660" s="5"/>
-    </row>
-    <row r="661" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD660" s="20"/>
+    </row>
+    <row r="661" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J661" s="5"/>
-    </row>
-    <row r="662" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD661" s="20"/>
+    </row>
+    <row r="662" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J662" s="5"/>
-    </row>
-    <row r="663" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD662" s="20"/>
+    </row>
+    <row r="663" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J663" s="5"/>
-    </row>
-    <row r="664" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD663" s="20"/>
+    </row>
+    <row r="664" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J664" s="5"/>
-    </row>
-    <row r="665" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD664" s="20"/>
+    </row>
+    <row r="665" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J665" s="5"/>
-    </row>
-    <row r="666" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD665" s="20"/>
+    </row>
+    <row r="666" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J666" s="5"/>
-    </row>
-    <row r="667" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD666" s="20"/>
+    </row>
+    <row r="667" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J667" s="5"/>
-    </row>
-    <row r="668" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD667" s="20"/>
+    </row>
+    <row r="668" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J668" s="5"/>
-    </row>
-    <row r="669" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD668" s="20"/>
+    </row>
+    <row r="669" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J669" s="5"/>
-    </row>
-    <row r="670" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD669" s="20"/>
+    </row>
+    <row r="670" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J670" s="5"/>
-    </row>
-    <row r="671" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD670" s="20"/>
+    </row>
+    <row r="671" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J671" s="5"/>
-    </row>
-    <row r="672" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD671" s="20"/>
+    </row>
+    <row r="672" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J672" s="5"/>
-    </row>
-    <row r="673" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD672" s="20"/>
+    </row>
+    <row r="673" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J673" s="5"/>
-    </row>
-    <row r="674" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD673" s="20"/>
+    </row>
+    <row r="674" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J674" s="5"/>
-    </row>
-    <row r="675" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD674" s="20"/>
+    </row>
+    <row r="675" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J675" s="5"/>
-    </row>
-    <row r="676" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD675" s="20"/>
+    </row>
+    <row r="676" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J676" s="5"/>
-    </row>
-    <row r="677" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD676" s="20"/>
+    </row>
+    <row r="677" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J677" s="5"/>
-    </row>
-    <row r="678" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD677" s="20"/>
+    </row>
+    <row r="678" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J678" s="5"/>
-    </row>
-    <row r="679" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD678" s="20"/>
+    </row>
+    <row r="679" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J679" s="5"/>
-    </row>
-    <row r="680" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD679" s="20"/>
+    </row>
+    <row r="680" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J680" s="5"/>
-    </row>
-    <row r="681" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD680" s="20"/>
+    </row>
+    <row r="681" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J681" s="5"/>
-    </row>
-    <row r="682" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD681" s="20"/>
+    </row>
+    <row r="682" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J682" s="5"/>
-    </row>
-    <row r="683" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD682" s="20"/>
+    </row>
+    <row r="683" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J683" s="5"/>
-    </row>
-    <row r="684" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD683" s="20"/>
+    </row>
+    <row r="684" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J684" s="5"/>
-    </row>
-    <row r="685" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD684" s="20"/>
+    </row>
+    <row r="685" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J685" s="5"/>
-    </row>
-    <row r="686" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD685" s="20"/>
+    </row>
+    <row r="686" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J686" s="5"/>
-    </row>
-    <row r="687" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD686" s="20"/>
+    </row>
+    <row r="687" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J687" s="5"/>
-    </row>
-    <row r="688" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD687" s="20"/>
+    </row>
+    <row r="688" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J688" s="5"/>
-    </row>
-    <row r="689" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD688" s="20"/>
+    </row>
+    <row r="689" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J689" s="5"/>
-    </row>
-    <row r="690" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD689" s="20"/>
+    </row>
+    <row r="690" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J690" s="5"/>
-    </row>
-    <row r="691" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD690" s="20"/>
+    </row>
+    <row r="691" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J691" s="5"/>
-    </row>
-    <row r="692" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD691" s="20"/>
+    </row>
+    <row r="692" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J692" s="5"/>
-    </row>
-    <row r="693" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD692" s="20"/>
+    </row>
+    <row r="693" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J693" s="5"/>
-    </row>
-    <row r="694" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD693" s="20"/>
+    </row>
+    <row r="694" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J694" s="5"/>
-    </row>
-    <row r="695" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD694" s="20"/>
+    </row>
+    <row r="695" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J695" s="5"/>
-    </row>
-    <row r="696" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD695" s="20"/>
+    </row>
+    <row r="696" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J696" s="5"/>
-    </row>
-    <row r="697" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD696" s="20"/>
+    </row>
+    <row r="697" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J697" s="5"/>
-    </row>
-    <row r="698" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD697" s="20"/>
+    </row>
+    <row r="698" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J698" s="5"/>
-    </row>
-    <row r="699" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD698" s="20"/>
+    </row>
+    <row r="699" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J699" s="5"/>
-    </row>
-    <row r="700" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD699" s="20"/>
+    </row>
+    <row r="700" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J700" s="5"/>
-    </row>
-    <row r="701" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD700" s="20"/>
+    </row>
+    <row r="701" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J701" s="5"/>
-    </row>
-    <row r="702" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD701" s="20"/>
+    </row>
+    <row r="702" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J702" s="5"/>
-    </row>
-    <row r="703" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD702" s="20"/>
+    </row>
+    <row r="703" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J703" s="5"/>
-    </row>
-    <row r="704" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD703" s="20"/>
+    </row>
+    <row r="704" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J704" s="5"/>
-    </row>
-    <row r="705" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD704" s="20"/>
+    </row>
+    <row r="705" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J705" s="5"/>
-    </row>
-    <row r="706" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD705" s="20"/>
+    </row>
+    <row r="706" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J706" s="5"/>
-    </row>
-    <row r="707" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD706" s="20"/>
+    </row>
+    <row r="707" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J707" s="5"/>
-    </row>
-    <row r="708" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD707" s="20"/>
+    </row>
+    <row r="708" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J708" s="5"/>
-    </row>
-    <row r="709" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD708" s="20"/>
+    </row>
+    <row r="709" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J709" s="5"/>
-    </row>
-    <row r="710" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD709" s="20"/>
+    </row>
+    <row r="710" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J710" s="5"/>
-    </row>
-    <row r="711" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD710" s="20"/>
+    </row>
+    <row r="711" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J711" s="5"/>
-    </row>
-    <row r="712" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD711" s="20"/>
+    </row>
+    <row r="712" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J712" s="5"/>
-    </row>
-    <row r="713" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD712" s="20"/>
+    </row>
+    <row r="713" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J713" s="5"/>
-    </row>
-    <row r="714" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD713" s="20"/>
+    </row>
+    <row r="714" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J714" s="5"/>
-    </row>
-    <row r="715" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD714" s="20"/>
+    </row>
+    <row r="715" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J715" s="5"/>
-    </row>
-    <row r="716" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD715" s="20"/>
+    </row>
+    <row r="716" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J716" s="5"/>
-    </row>
-    <row r="717" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD716" s="20"/>
+    </row>
+    <row r="717" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J717" s="5"/>
-    </row>
-    <row r="718" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD717" s="20"/>
+    </row>
+    <row r="718" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J718" s="5"/>
-    </row>
-    <row r="719" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD718" s="20"/>
+    </row>
+    <row r="719" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J719" s="5"/>
-    </row>
-    <row r="720" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD719" s="20"/>
+    </row>
+    <row r="720" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J720" s="5"/>
-    </row>
-    <row r="721" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD720" s="20"/>
+    </row>
+    <row r="721" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J721" s="5"/>
-    </row>
-    <row r="722" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD721" s="20"/>
+    </row>
+    <row r="722" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J722" s="5"/>
-    </row>
-    <row r="723" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD722" s="20"/>
+    </row>
+    <row r="723" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J723" s="5"/>
-    </row>
-    <row r="724" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD723" s="20"/>
+    </row>
+    <row r="724" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J724" s="5"/>
-    </row>
-    <row r="725" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD724" s="20"/>
+    </row>
+    <row r="725" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J725" s="5"/>
-    </row>
-    <row r="726" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD725" s="20"/>
+    </row>
+    <row r="726" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J726" s="5"/>
-    </row>
-    <row r="727" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD726" s="20"/>
+    </row>
+    <row r="727" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J727" s="5"/>
-    </row>
-    <row r="728" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD727" s="20"/>
+    </row>
+    <row r="728" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J728" s="5"/>
-    </row>
-    <row r="729" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD728" s="20"/>
+    </row>
+    <row r="729" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J729" s="5"/>
-    </row>
-    <row r="730" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD729" s="20"/>
+    </row>
+    <row r="730" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J730" s="5"/>
-    </row>
-    <row r="731" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD730" s="20"/>
+    </row>
+    <row r="731" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J731" s="5"/>
-    </row>
-    <row r="732" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD731" s="20"/>
+    </row>
+    <row r="732" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J732" s="5"/>
-    </row>
-    <row r="733" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD732" s="20"/>
+    </row>
+    <row r="733" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J733" s="5"/>
-    </row>
-    <row r="734" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD733" s="20"/>
+    </row>
+    <row r="734" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J734" s="5"/>
-    </row>
-    <row r="735" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD734" s="20"/>
+    </row>
+    <row r="735" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J735" s="5"/>
-    </row>
-    <row r="736" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD735" s="20"/>
+    </row>
+    <row r="736" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J736" s="5"/>
-    </row>
-    <row r="737" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD736" s="20"/>
+    </row>
+    <row r="737" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J737" s="5"/>
-    </row>
-    <row r="738" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD737" s="20"/>
+    </row>
+    <row r="738" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J738" s="5"/>
-    </row>
-    <row r="739" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD738" s="20"/>
+    </row>
+    <row r="739" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J739" s="5"/>
-    </row>
-    <row r="740" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD739" s="20"/>
+    </row>
+    <row r="740" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J740" s="5"/>
-    </row>
-    <row r="741" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD740" s="20"/>
+    </row>
+    <row r="741" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J741" s="5"/>
-    </row>
-    <row r="742" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD741" s="20"/>
+    </row>
+    <row r="742" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J742" s="5"/>
-    </row>
-    <row r="743" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD742" s="20"/>
+    </row>
+    <row r="743" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J743" s="5"/>
-    </row>
-    <row r="744" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD743" s="20"/>
+    </row>
+    <row r="744" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J744" s="5"/>
-    </row>
-    <row r="745" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD744" s="20"/>
+    </row>
+    <row r="745" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J745" s="5"/>
-    </row>
-    <row r="746" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD745" s="20"/>
+    </row>
+    <row r="746" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J746" s="5"/>
-    </row>
-    <row r="747" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD746" s="20"/>
+    </row>
+    <row r="747" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J747" s="5"/>
-    </row>
-    <row r="748" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD747" s="20"/>
+    </row>
+    <row r="748" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J748" s="5"/>
-    </row>
-    <row r="749" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD748" s="20"/>
+    </row>
+    <row r="749" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J749" s="5"/>
-    </row>
-    <row r="750" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD749" s="20"/>
+    </row>
+    <row r="750" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J750" s="5"/>
-    </row>
-    <row r="751" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD750" s="20"/>
+    </row>
+    <row r="751" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J751" s="5"/>
-    </row>
-    <row r="752" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD751" s="20"/>
+    </row>
+    <row r="752" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J752" s="5"/>
-    </row>
-    <row r="753" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD752" s="20"/>
+    </row>
+    <row r="753" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J753" s="5"/>
-    </row>
-    <row r="754" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD753" s="20"/>
+    </row>
+    <row r="754" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J754" s="5"/>
-    </row>
-    <row r="755" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD754" s="20"/>
+    </row>
+    <row r="755" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J755" s="5"/>
-    </row>
-    <row r="756" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD755" s="20"/>
+    </row>
+    <row r="756" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J756" s="5"/>
-    </row>
-    <row r="757" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD756" s="20"/>
+    </row>
+    <row r="757" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J757" s="5"/>
-    </row>
-    <row r="758" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD757" s="20"/>
+    </row>
+    <row r="758" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J758" s="5"/>
-    </row>
-    <row r="759" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD758" s="20"/>
+    </row>
+    <row r="759" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J759" s="5"/>
-    </row>
-    <row r="760" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD759" s="20"/>
+    </row>
+    <row r="760" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J760" s="5"/>
-    </row>
-    <row r="761" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD760" s="20"/>
+    </row>
+    <row r="761" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J761" s="5"/>
-    </row>
-    <row r="762" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD761" s="20"/>
+    </row>
+    <row r="762" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J762" s="5"/>
-    </row>
-    <row r="763" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD762" s="20"/>
+    </row>
+    <row r="763" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J763" s="5"/>
-    </row>
-    <row r="764" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD763" s="20"/>
+    </row>
+    <row r="764" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J764" s="5"/>
-    </row>
-    <row r="765" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD764" s="20"/>
+    </row>
+    <row r="765" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J765" s="5"/>
-    </row>
-    <row r="766" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD765" s="20"/>
+    </row>
+    <row r="766" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J766" s="5"/>
-    </row>
-    <row r="767" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD766" s="20"/>
+    </row>
+    <row r="767" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J767" s="5"/>
-    </row>
-    <row r="768" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD767" s="20"/>
+    </row>
+    <row r="768" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J768" s="5"/>
-    </row>
-    <row r="769" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD768" s="20"/>
+    </row>
+    <row r="769" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J769" s="5"/>
-    </row>
-    <row r="770" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD769" s="20"/>
+    </row>
+    <row r="770" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J770" s="5"/>
-    </row>
-    <row r="771" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD770" s="20"/>
+    </row>
+    <row r="771" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J771" s="5"/>
-    </row>
-    <row r="772" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD771" s="20"/>
+    </row>
+    <row r="772" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J772" s="5"/>
-    </row>
-    <row r="773" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD772" s="20"/>
+    </row>
+    <row r="773" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J773" s="5"/>
-    </row>
-    <row r="774" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD773" s="20"/>
+    </row>
+    <row r="774" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J774" s="5"/>
-    </row>
-    <row r="775" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD774" s="20"/>
+    </row>
+    <row r="775" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J775" s="5"/>
-    </row>
-    <row r="776" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD775" s="20"/>
+    </row>
+    <row r="776" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J776" s="5"/>
-    </row>
-    <row r="777" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD776" s="20"/>
+    </row>
+    <row r="777" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J777" s="5"/>
-    </row>
-    <row r="778" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD777" s="20"/>
+    </row>
+    <row r="778" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J778" s="5"/>
-    </row>
-    <row r="779" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD778" s="20"/>
+    </row>
+    <row r="779" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J779" s="5"/>
-    </row>
-    <row r="780" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD779" s="20"/>
+    </row>
+    <row r="780" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J780" s="5"/>
-    </row>
-    <row r="781" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD780" s="20"/>
+    </row>
+    <row r="781" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J781" s="5"/>
-    </row>
-    <row r="782" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD781" s="20"/>
+    </row>
+    <row r="782" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J782" s="5"/>
-    </row>
-    <row r="783" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD782" s="20"/>
+    </row>
+    <row r="783" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J783" s="5"/>
-    </row>
-    <row r="784" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD783" s="20"/>
+    </row>
+    <row r="784" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J784" s="5"/>
-    </row>
-    <row r="785" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD784" s="20"/>
+    </row>
+    <row r="785" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J785" s="5"/>
-    </row>
-    <row r="786" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD785" s="20"/>
+    </row>
+    <row r="786" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J786" s="5"/>
-    </row>
-    <row r="787" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD786" s="20"/>
+    </row>
+    <row r="787" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J787" s="5"/>
-    </row>
-    <row r="788" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD787" s="20"/>
+    </row>
+    <row r="788" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J788" s="5"/>
-    </row>
-    <row r="789" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD788" s="20"/>
+    </row>
+    <row r="789" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J789" s="5"/>
-    </row>
-    <row r="790" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD789" s="20"/>
+    </row>
+    <row r="790" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J790" s="5"/>
-    </row>
-    <row r="791" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD790" s="20"/>
+    </row>
+    <row r="791" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J791" s="5"/>
-    </row>
-    <row r="792" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD791" s="20"/>
+    </row>
+    <row r="792" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J792" s="5"/>
-    </row>
-    <row r="793" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD792" s="20"/>
+    </row>
+    <row r="793" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J793" s="5"/>
-    </row>
-    <row r="794" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD793" s="20"/>
+    </row>
+    <row r="794" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J794" s="5"/>
-    </row>
-    <row r="795" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD794" s="20"/>
+    </row>
+    <row r="795" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J795" s="5"/>
-    </row>
-    <row r="796" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD795" s="20"/>
+    </row>
+    <row r="796" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J796" s="5"/>
-    </row>
-    <row r="797" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD796" s="20"/>
+    </row>
+    <row r="797" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J797" s="5"/>
-    </row>
-    <row r="798" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD797" s="20"/>
+    </row>
+    <row r="798" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J798" s="5"/>
-    </row>
-    <row r="799" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD798" s="20"/>
+    </row>
+    <row r="799" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J799" s="5"/>
-    </row>
-    <row r="800" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD799" s="20"/>
+    </row>
+    <row r="800" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J800" s="5"/>
-    </row>
-    <row r="801" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD800" s="20"/>
+    </row>
+    <row r="801" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J801" s="5"/>
-    </row>
-    <row r="802" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD801" s="20"/>
+    </row>
+    <row r="802" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J802" s="5"/>
-    </row>
-    <row r="803" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD802" s="20"/>
+    </row>
+    <row r="803" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J803" s="5"/>
-    </row>
-    <row r="804" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD803" s="20"/>
+    </row>
+    <row r="804" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J804" s="5"/>
-    </row>
-    <row r="805" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD804" s="20"/>
+    </row>
+    <row r="805" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J805" s="5"/>
-    </row>
-    <row r="806" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD805" s="20"/>
+    </row>
+    <row r="806" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J806" s="5"/>
-    </row>
-    <row r="807" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD806" s="20"/>
+    </row>
+    <row r="807" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J807" s="5"/>
-    </row>
-    <row r="808" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD807" s="20"/>
+    </row>
+    <row r="808" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J808" s="5"/>
-    </row>
-    <row r="809" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD808" s="20"/>
+    </row>
+    <row r="809" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J809" s="5"/>
-    </row>
-    <row r="810" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD809" s="20"/>
+    </row>
+    <row r="810" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J810" s="5"/>
-    </row>
-    <row r="811" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD810" s="20"/>
+    </row>
+    <row r="811" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J811" s="5"/>
-    </row>
-    <row r="812" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD811" s="20"/>
+    </row>
+    <row r="812" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J812" s="5"/>
-    </row>
-    <row r="813" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD812" s="20"/>
+    </row>
+    <row r="813" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J813" s="5"/>
-    </row>
-    <row r="814" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD813" s="20"/>
+    </row>
+    <row r="814" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J814" s="5"/>
-    </row>
-    <row r="815" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD814" s="20"/>
+    </row>
+    <row r="815" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J815" s="5"/>
-    </row>
-    <row r="816" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD815" s="20"/>
+    </row>
+    <row r="816" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J816" s="5"/>
-    </row>
-    <row r="817" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD816" s="20"/>
+    </row>
+    <row r="817" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J817" s="5"/>
-    </row>
-    <row r="818" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD817" s="20"/>
+    </row>
+    <row r="818" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J818" s="5"/>
-    </row>
-    <row r="819" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD818" s="20"/>
+    </row>
+    <row r="819" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J819" s="5"/>
-    </row>
-    <row r="820" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD819" s="20"/>
+    </row>
+    <row r="820" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J820" s="5"/>
-    </row>
-    <row r="821" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD820" s="20"/>
+    </row>
+    <row r="821" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J821" s="5"/>
-    </row>
-    <row r="822" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD821" s="20"/>
+    </row>
+    <row r="822" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J822" s="5"/>
-    </row>
-    <row r="823" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD822" s="20"/>
+    </row>
+    <row r="823" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J823" s="5"/>
-    </row>
-    <row r="824" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD823" s="20"/>
+    </row>
+    <row r="824" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J824" s="5"/>
-    </row>
-    <row r="825" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD824" s="20"/>
+    </row>
+    <row r="825" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J825" s="5"/>
-    </row>
-    <row r="826" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD825" s="20"/>
+    </row>
+    <row r="826" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J826" s="5"/>
-    </row>
-    <row r="827" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD826" s="20"/>
+    </row>
+    <row r="827" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J827" s="5"/>
-    </row>
-    <row r="828" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD827" s="20"/>
+    </row>
+    <row r="828" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J828" s="5"/>
-    </row>
-    <row r="829" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD828" s="20"/>
+    </row>
+    <row r="829" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J829" s="5"/>
-    </row>
-    <row r="830" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD829" s="20"/>
+    </row>
+    <row r="830" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J830" s="5"/>
-    </row>
-    <row r="831" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD830" s="20"/>
+    </row>
+    <row r="831" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J831" s="5"/>
-    </row>
-    <row r="832" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD831" s="20"/>
+    </row>
+    <row r="832" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J832" s="5"/>
-    </row>
-    <row r="833" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD832" s="20"/>
+    </row>
+    <row r="833" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J833" s="5"/>
-    </row>
-    <row r="834" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD833" s="20"/>
+    </row>
+    <row r="834" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J834" s="5"/>
-    </row>
-    <row r="835" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD834" s="20"/>
+    </row>
+    <row r="835" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J835" s="5"/>
-    </row>
-    <row r="836" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD835" s="20"/>
+    </row>
+    <row r="836" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J836" s="5"/>
-    </row>
-    <row r="837" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD836" s="20"/>
+    </row>
+    <row r="837" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J837" s="5"/>
-    </row>
-    <row r="838" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD837" s="20"/>
+    </row>
+    <row r="838" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J838" s="5"/>
-    </row>
-    <row r="839" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD838" s="20"/>
+    </row>
+    <row r="839" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J839" s="5"/>
-    </row>
-    <row r="840" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD839" s="20"/>
+    </row>
+    <row r="840" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J840" s="5"/>
-    </row>
-    <row r="841" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD840" s="20"/>
+    </row>
+    <row r="841" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J841" s="5"/>
-    </row>
-    <row r="842" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD841" s="20"/>
+    </row>
+    <row r="842" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J842" s="5"/>
-    </row>
-    <row r="843" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD842" s="20"/>
+    </row>
+    <row r="843" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J843" s="5"/>
-    </row>
-    <row r="844" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD843" s="20"/>
+    </row>
+    <row r="844" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J844" s="5"/>
-    </row>
-    <row r="845" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD844" s="20"/>
+    </row>
+    <row r="845" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J845" s="5"/>
-    </row>
-    <row r="846" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD845" s="20"/>
+    </row>
+    <row r="846" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J846" s="5"/>
-    </row>
-    <row r="847" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD846" s="20"/>
+    </row>
+    <row r="847" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J847" s="5"/>
-    </row>
-    <row r="848" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD847" s="20"/>
+    </row>
+    <row r="848" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J848" s="5"/>
-    </row>
-    <row r="849" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD848" s="20"/>
+    </row>
+    <row r="849" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J849" s="5"/>
-    </row>
-    <row r="850" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD849" s="20"/>
+    </row>
+    <row r="850" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J850" s="5"/>
-    </row>
-    <row r="851" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD850" s="20"/>
+    </row>
+    <row r="851" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J851" s="5"/>
-    </row>
-    <row r="852" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD851" s="20"/>
+    </row>
+    <row r="852" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J852" s="5"/>
-    </row>
-    <row r="853" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD852" s="20"/>
+    </row>
+    <row r="853" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J853" s="5"/>
-    </row>
-    <row r="854" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD853" s="20"/>
+    </row>
+    <row r="854" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J854" s="5"/>
-    </row>
-    <row r="855" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD854" s="20"/>
+    </row>
+    <row r="855" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J855" s="5"/>
-    </row>
-    <row r="856" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD855" s="20"/>
+    </row>
+    <row r="856" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J856" s="5"/>
-    </row>
-    <row r="857" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD856" s="20"/>
+    </row>
+    <row r="857" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J857" s="5"/>
-    </row>
-    <row r="858" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD857" s="20"/>
+    </row>
+    <row r="858" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J858" s="5"/>
-    </row>
-    <row r="859" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD858" s="20"/>
+    </row>
+    <row r="859" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J859" s="5"/>
-    </row>
-    <row r="860" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD859" s="20"/>
+    </row>
+    <row r="860" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J860" s="5"/>
-    </row>
-    <row r="861" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD860" s="20"/>
+    </row>
+    <row r="861" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J861" s="5"/>
-    </row>
-    <row r="862" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD861" s="20"/>
+    </row>
+    <row r="862" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J862" s="5"/>
-    </row>
-    <row r="863" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD862" s="20"/>
+    </row>
+    <row r="863" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J863" s="5"/>
-    </row>
-    <row r="864" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD863" s="20"/>
+    </row>
+    <row r="864" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J864" s="5"/>
-    </row>
-    <row r="865" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD864" s="20"/>
+    </row>
+    <row r="865" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J865" s="5"/>
-    </row>
-    <row r="866" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD865" s="20"/>
+    </row>
+    <row r="866" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J866" s="5"/>
-    </row>
-    <row r="867" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD866" s="20"/>
+    </row>
+    <row r="867" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J867" s="5"/>
-    </row>
-    <row r="868" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD867" s="20"/>
+    </row>
+    <row r="868" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J868" s="5"/>
-    </row>
-    <row r="869" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD868" s="20"/>
+    </row>
+    <row r="869" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J869" s="5"/>
-    </row>
-    <row r="870" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD869" s="20"/>
+    </row>
+    <row r="870" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J870" s="5"/>
-    </row>
-    <row r="871" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD870" s="20"/>
+    </row>
+    <row r="871" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J871" s="5"/>
-    </row>
-    <row r="872" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD871" s="20"/>
+    </row>
+    <row r="872" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J872" s="5"/>
-    </row>
-    <row r="873" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD872" s="20"/>
+    </row>
+    <row r="873" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J873" s="5"/>
-    </row>
-    <row r="874" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD873" s="20"/>
+    </row>
+    <row r="874" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J874" s="5"/>
-    </row>
-    <row r="875" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD874" s="20"/>
+    </row>
+    <row r="875" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J875" s="5"/>
-    </row>
-    <row r="876" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD875" s="20"/>
+    </row>
+    <row r="876" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J876" s="5"/>
-    </row>
-    <row r="877" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD876" s="20"/>
+    </row>
+    <row r="877" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J877" s="5"/>
-    </row>
-    <row r="878" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD877" s="20"/>
+    </row>
+    <row r="878" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J878" s="5"/>
-    </row>
-    <row r="879" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD878" s="20"/>
+    </row>
+    <row r="879" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J879" s="5"/>
-    </row>
-    <row r="880" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD879" s="20"/>
+    </row>
+    <row r="880" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J880" s="5"/>
-    </row>
-    <row r="881" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD880" s="20"/>
+    </row>
+    <row r="881" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J881" s="5"/>
-    </row>
-    <row r="882" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD881" s="20"/>
+    </row>
+    <row r="882" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J882" s="5"/>
-    </row>
-    <row r="883" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD882" s="20"/>
+    </row>
+    <row r="883" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J883" s="5"/>
-    </row>
-    <row r="884" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD883" s="20"/>
+    </row>
+    <row r="884" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J884" s="5"/>
-    </row>
-    <row r="885" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD884" s="20"/>
+    </row>
+    <row r="885" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J885" s="5"/>
-    </row>
-    <row r="886" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD885" s="20"/>
+    </row>
+    <row r="886" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J886" s="5"/>
-    </row>
-    <row r="887" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD886" s="20"/>
+    </row>
+    <row r="887" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J887" s="5"/>
-    </row>
-    <row r="888" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD887" s="20"/>
+    </row>
+    <row r="888" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J888" s="5"/>
-    </row>
-    <row r="889" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD888" s="20"/>
+    </row>
+    <row r="889" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J889" s="5"/>
-    </row>
-    <row r="890" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD889" s="20"/>
+    </row>
+    <row r="890" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J890" s="5"/>
-    </row>
-    <row r="891" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD890" s="20"/>
+    </row>
+    <row r="891" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J891" s="5"/>
-    </row>
-    <row r="892" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD891" s="20"/>
+    </row>
+    <row r="892" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J892" s="5"/>
-    </row>
-    <row r="893" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD892" s="20"/>
+    </row>
+    <row r="893" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J893" s="5"/>
-    </row>
-    <row r="894" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD893" s="20"/>
+    </row>
+    <row r="894" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J894" s="5"/>
-    </row>
-    <row r="895" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD894" s="20"/>
+    </row>
+    <row r="895" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J895" s="5"/>
-    </row>
-    <row r="896" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD895" s="20"/>
+    </row>
+    <row r="896" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J896" s="5"/>
-    </row>
-    <row r="897" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD896" s="20"/>
+    </row>
+    <row r="897" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J897" s="5"/>
-    </row>
-    <row r="898" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD897" s="20"/>
+    </row>
+    <row r="898" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J898" s="5"/>
-    </row>
-    <row r="899" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD898" s="20"/>
+    </row>
+    <row r="899" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J899" s="5"/>
-    </row>
-    <row r="900" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD899" s="20"/>
+    </row>
+    <row r="900" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J900" s="5"/>
-    </row>
-    <row r="901" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD900" s="20"/>
+    </row>
+    <row r="901" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J901" s="5"/>
-    </row>
-    <row r="902" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD901" s="20"/>
+    </row>
+    <row r="902" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J902" s="5"/>
-    </row>
-    <row r="903" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD902" s="20"/>
+    </row>
+    <row r="903" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J903" s="5"/>
-    </row>
-    <row r="904" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD903" s="20"/>
+    </row>
+    <row r="904" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J904" s="5"/>
-    </row>
-    <row r="905" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD904" s="20"/>
+    </row>
+    <row r="905" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J905" s="5"/>
-    </row>
-    <row r="906" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD905" s="20"/>
+    </row>
+    <row r="906" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J906" s="5"/>
-    </row>
-    <row r="907" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD906" s="20"/>
+    </row>
+    <row r="907" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J907" s="5"/>
-    </row>
-    <row r="908" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD907" s="20"/>
+    </row>
+    <row r="908" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J908" s="5"/>
-    </row>
-    <row r="909" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD908" s="20"/>
+    </row>
+    <row r="909" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J909" s="5"/>
-    </row>
-    <row r="910" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD909" s="20"/>
+    </row>
+    <row r="910" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J910" s="5"/>
-    </row>
-    <row r="911" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD910" s="20"/>
+    </row>
+    <row r="911" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J911" s="5"/>
-    </row>
-    <row r="912" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD911" s="20"/>
+    </row>
+    <row r="912" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J912" s="5"/>
-    </row>
-    <row r="913" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD912" s="20"/>
+    </row>
+    <row r="913" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J913" s="5"/>
-    </row>
-    <row r="914" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD913" s="20"/>
+    </row>
+    <row r="914" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J914" s="5"/>
-    </row>
-    <row r="915" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD914" s="20"/>
+    </row>
+    <row r="915" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J915" s="5"/>
-    </row>
-    <row r="916" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD915" s="20"/>
+    </row>
+    <row r="916" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J916" s="5"/>
-    </row>
-    <row r="917" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD916" s="20"/>
+    </row>
+    <row r="917" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J917" s="5"/>
-    </row>
-    <row r="918" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD917" s="20"/>
+    </row>
+    <row r="918" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J918" s="5"/>
-    </row>
-    <row r="919" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD918" s="20"/>
+    </row>
+    <row r="919" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J919" s="5"/>
-    </row>
-    <row r="920" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD919" s="20"/>
+    </row>
+    <row r="920" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J920" s="5"/>
-    </row>
-    <row r="921" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD920" s="20"/>
+    </row>
+    <row r="921" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J921" s="5"/>
-    </row>
-    <row r="922" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD921" s="20"/>
+    </row>
+    <row r="922" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J922" s="5"/>
-    </row>
-    <row r="923" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD922" s="20"/>
+    </row>
+    <row r="923" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J923" s="5"/>
-    </row>
-    <row r="924" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD923" s="20"/>
+    </row>
+    <row r="924" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J924" s="5"/>
-    </row>
-    <row r="925" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD924" s="20"/>
+    </row>
+    <row r="925" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J925" s="5"/>
-    </row>
-    <row r="926" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD925" s="20"/>
+    </row>
+    <row r="926" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J926" s="5"/>
-    </row>
-    <row r="927" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD926" s="20"/>
+    </row>
+    <row r="927" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J927" s="5"/>
-    </row>
-    <row r="928" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD927" s="20"/>
+    </row>
+    <row r="928" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J928" s="5"/>
-    </row>
-    <row r="929" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD928" s="20"/>
+    </row>
+    <row r="929" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J929" s="5"/>
-    </row>
-    <row r="930" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD929" s="20"/>
+    </row>
+    <row r="930" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J930" s="5"/>
-    </row>
-    <row r="931" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD930" s="20"/>
+    </row>
+    <row r="931" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J931" s="5"/>
-    </row>
-    <row r="932" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD931" s="20"/>
+    </row>
+    <row r="932" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J932" s="5"/>
-    </row>
-    <row r="933" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD932" s="20"/>
+    </row>
+    <row r="933" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J933" s="5"/>
-    </row>
-    <row r="934" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD933" s="20"/>
+    </row>
+    <row r="934" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J934" s="5"/>
-    </row>
-    <row r="935" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD934" s="20"/>
+    </row>
+    <row r="935" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J935" s="5"/>
-    </row>
-    <row r="936" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD935" s="20"/>
+    </row>
+    <row r="936" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J936" s="5"/>
-    </row>
-    <row r="937" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD936" s="20"/>
+    </row>
+    <row r="937" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J937" s="5"/>
-    </row>
-    <row r="938" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD937" s="20"/>
+    </row>
+    <row r="938" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J938" s="5"/>
-    </row>
-    <row r="939" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD938" s="20"/>
+    </row>
+    <row r="939" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J939" s="5"/>
-    </row>
-    <row r="940" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD939" s="20"/>
+    </row>
+    <row r="940" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J940" s="5"/>
-    </row>
-    <row r="941" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD940" s="20"/>
+    </row>
+    <row r="941" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J941" s="5"/>
-    </row>
-    <row r="942" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD941" s="20"/>
+    </row>
+    <row r="942" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J942" s="5"/>
-    </row>
-    <row r="943" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD942" s="20"/>
+    </row>
+    <row r="943" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J943" s="5"/>
-    </row>
-    <row r="944" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD943" s="20"/>
+    </row>
+    <row r="944" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J944" s="5"/>
-    </row>
-    <row r="945" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD944" s="20"/>
+    </row>
+    <row r="945" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J945" s="5"/>
-    </row>
-    <row r="946" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD945" s="20"/>
+    </row>
+    <row r="946" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J946" s="5"/>
-    </row>
-    <row r="947" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD946" s="20"/>
+    </row>
+    <row r="947" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J947" s="5"/>
-    </row>
-    <row r="948" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD947" s="20"/>
+    </row>
+    <row r="948" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J948" s="5"/>
-    </row>
-    <row r="949" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD948" s="20"/>
+    </row>
+    <row r="949" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J949" s="5"/>
-    </row>
-    <row r="950" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD949" s="20"/>
+    </row>
+    <row r="950" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J950" s="5"/>
-    </row>
-    <row r="951" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD950" s="20"/>
+    </row>
+    <row r="951" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J951" s="5"/>
-    </row>
-    <row r="952" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD951" s="20"/>
+    </row>
+    <row r="952" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J952" s="5"/>
-    </row>
-    <row r="953" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD952" s="20"/>
+    </row>
+    <row r="953" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J953" s="5"/>
-    </row>
-    <row r="954" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD953" s="20"/>
+    </row>
+    <row r="954" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J954" s="5"/>
-    </row>
-    <row r="955" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD954" s="20"/>
+    </row>
+    <row r="955" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J955" s="5"/>
-    </row>
-    <row r="956" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD955" s="20"/>
+    </row>
+    <row r="956" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J956" s="5"/>
-    </row>
-    <row r="957" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD956" s="20"/>
+    </row>
+    <row r="957" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J957" s="5"/>
-    </row>
-    <row r="958" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD957" s="20"/>
+    </row>
+    <row r="958" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J958" s="5"/>
-    </row>
-    <row r="959" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD958" s="20"/>
+    </row>
+    <row r="959" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J959" s="5"/>
-    </row>
-    <row r="960" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD959" s="20"/>
+    </row>
+    <row r="960" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J960" s="5"/>
-    </row>
-    <row r="961" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD960" s="20"/>
+    </row>
+    <row r="961" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J961" s="5"/>
-    </row>
-    <row r="962" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD961" s="20"/>
+    </row>
+    <row r="962" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J962" s="5"/>
-    </row>
-    <row r="963" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD962" s="20"/>
+    </row>
+    <row r="963" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J963" s="5"/>
-    </row>
-    <row r="964" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD963" s="20"/>
+    </row>
+    <row r="964" spans="10:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="J964" s="5"/>
-    </row>
-    <row r="965" spans="10:10" ht="15.75" customHeight="1">
+      <c r="BD964" s="20"/>
+    </row>
+    <row r="965" spans="10:56" ht="15.75" customHeight="1">
       <c r="J965" s="5"/>
     </row>
-    <row r="966" spans="10:10" ht="15.75" customHeight="1">
+    <row r="966" spans="10:56" ht="15.75" customHeight="1">
       <c r="J966" s="5"/>
     </row>
-    <row r="967" spans="10:10" ht="15.75" customHeight="1">
+    <row r="967" spans="10:56" ht="15.75" customHeight="1">
       <c r="J967" s="5"/>
     </row>
-    <row r="968" spans="10:10" ht="15.75" customHeight="1">
+    <row r="968" spans="10:56" ht="15.75" customHeight="1">
       <c r="J968" s="5"/>
     </row>
-    <row r="969" spans="10:10" ht="15.75" customHeight="1">
+    <row r="969" spans="10:56" ht="15.75" customHeight="1">
       <c r="J969" s="5"/>
     </row>
-    <row r="970" spans="10:10" ht="15.75" customHeight="1">
+    <row r="970" spans="10:56" ht="15.75" customHeight="1">
       <c r="J970" s="5"/>
     </row>
-    <row r="971" spans="10:10" ht="15.75" customHeight="1">
+    <row r="971" spans="10:56" ht="15.75" customHeight="1">
       <c r="J971" s="5"/>
     </row>
-    <row r="972" spans="10:10" ht="15.75" customHeight="1">
+    <row r="972" spans="10:56" ht="15.75" customHeight="1">
       <c r="J972" s="5"/>
     </row>
-    <row r="973" spans="10:10" ht="15.75" customHeight="1">
+    <row r="973" spans="10:56" ht="15.75" customHeight="1">
       <c r="J973" s="5"/>
     </row>
-    <row r="974" spans="10:10" ht="15.75" customHeight="1">
+    <row r="974" spans="10:56" ht="15.75" customHeight="1">
       <c r="J974" s="5"/>
     </row>
-    <row r="975" spans="10:10" ht="15.75" customHeight="1">
+    <row r="975" spans="10:56" ht="15.75" customHeight="1">
       <c r="J975" s="5"/>
     </row>
-    <row r="976" spans="10:10" ht="15.75" customHeight="1">
+    <row r="976" spans="10:56" ht="15.75" customHeight="1">
       <c r="J976" s="5"/>
     </row>
     <row r="977" spans="10:10" ht="15.75" customHeight="1">

--- a/2025 - Top Political Races and Data.xlsx
+++ b/2025 - Top Political Races and Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unomail-my.sharepoint.com/personal/dvarandani_unomaha_edu/Documents/Upwork/InteractiveMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{58640D19-BD88-4109-A0D1-58954A95F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8135909B-5B0A-4CB1-9420-96F46F17AC31}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{58640D19-BD88-4109-A0D1-58954A95F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9572A9E0-3274-4A0E-9DAB-083A2E670B69}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="303">
   <si>
     <t>Narrative</t>
   </si>
@@ -443,9 +443,6 @@
     <t>Minnesota</t>
   </si>
   <si>
-    <t>Hunters</t>
-  </si>
-  <si>
     <t>Mississippi</t>
   </si>
   <si>
@@ -464,12 +461,6 @@
     <t>New Hampshire</t>
   </si>
   <si>
-    <t>Heavy News</t>
-  </si>
-  <si>
-    <t>DownArrow</t>
-  </si>
-  <si>
     <t>New Jersey</t>
   </si>
   <si>
@@ -705,6 +696,255 @@
   </si>
   <si>
     <t>Eligible Voter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The New Mexico populace is deeply connected to its cultural heritage, with many being bilingual or native language speakers that often use tools like Duolingo to maintain language skills. Their media consumption reflects a strong preference for audio content, indexing highly for audiobooks, along with music and podcasts on TuneInRadio and Spotify. </t>
+  </si>
+  <si>
+    <t>A Place to Call Home</t>
+  </si>
+  <si>
+    <t>Vision Latina</t>
+  </si>
+  <si>
+    <t>Recipe.TV</t>
+  </si>
+  <si>
+    <t>TuneinRadio: Music &amp; Sports</t>
+  </si>
+  <si>
+    <t>Duolingo: Language Lessons</t>
+  </si>
+  <si>
+    <t>Spotify: Music &amp; Podcasts</t>
+  </si>
+  <si>
+    <t>United States Postal Service</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
+    <t>Lowe's Home Improvement</t>
+  </si>
+  <si>
+    <t>Audiobooks</t>
+  </si>
+  <si>
+    <t>Casinos &amp; Gamblign</t>
+  </si>
+  <si>
+    <t>Horseback Riding</t>
+  </si>
+  <si>
+    <t>People from Ohio show strong engagement with live sports, reflected in their interest in baseball, usage of apps like Yahoo Sports and visits to locations such as Kent State University. Their shopping habits center around value and convenience with usage of apps like Kohl's and Walmart and visits to Rent-A-Center</t>
+  </si>
+  <si>
+    <t>Sell This House!</t>
+  </si>
+  <si>
+    <t>Key &amp; Peele (245)</t>
+  </si>
+  <si>
+    <t>The Laugh List</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>History Channel</t>
+  </si>
+  <si>
+    <t>Yahoo Sports</t>
+  </si>
+  <si>
+    <t>Walmart: Shopping &amp; Savings</t>
+  </si>
+  <si>
+    <t>Rent-A-Center (431)</t>
+  </si>
+  <si>
+    <t>Kent State University</t>
+  </si>
+  <si>
+    <t>Live Sports Viewers</t>
+  </si>
+  <si>
+    <t>Music Makers</t>
+  </si>
+  <si>
+    <t>Cat Owners</t>
+  </si>
+  <si>
+    <t>Virginians value creativity and flexibility, as shown by their strong idexing for hybrid work, film, and music-making. Their entertainment preferences lean global as seen in shows like Dead Lucky and channels like BBC Earth.</t>
+  </si>
+  <si>
+    <t>Dead Lucky</t>
+  </si>
+  <si>
+    <t>Murphy Brown</t>
+  </si>
+  <si>
+    <t>Biohackers</t>
+  </si>
+  <si>
+    <t>BBC Earth</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>Acorn TV</t>
+  </si>
+  <si>
+    <t>Perfect Me - Face &amp; Body Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MobiOffice: Word, Sheets, PDF </t>
+  </si>
+  <si>
+    <t>Alight Motion</t>
+  </si>
+  <si>
+    <t>Sheraton</t>
+  </si>
+  <si>
+    <t>AutoZone</t>
+  </si>
+  <si>
+    <t>Atlantic Union Bank</t>
+  </si>
+  <si>
+    <t>Hybrid/Remote Workers</t>
+  </si>
+  <si>
+    <t>Film Enthusiasts</t>
+  </si>
+  <si>
+    <t>People from Minnesota are deeply rooted in outdoor culture centered around hunting, fishing, skiing, and hockey. They stay informed and connected through apps like Outlook, BeReal, and NewsBreak and frequent local spots such as Caribou Coffee and the Mall of America.</t>
+  </si>
+  <si>
+    <t>USL W-League</t>
+  </si>
+  <si>
+    <t>Rooster Tales</t>
+  </si>
+  <si>
+    <t>Midwest Outdoors</t>
+  </si>
+  <si>
+    <t>Bally Sports</t>
+  </si>
+  <si>
+    <t>NBC</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>NewsBreak: Local News &amp; Alerts</t>
+  </si>
+  <si>
+    <t>Microsoft Outlook</t>
+  </si>
+  <si>
+    <t>BeReal. Your friends for real</t>
+  </si>
+  <si>
+    <t>Caribou Coffee</t>
+  </si>
+  <si>
+    <t>Mall of America</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Recreational Hunters</t>
+  </si>
+  <si>
+    <t>Massachusetts residents blend strong charitable giving with professional and cultural pursuits, showing high engagement with business media and arts venues. Their app and shopping preferences reflect intellectual curiosity and an appreciation for quality retail experiences.</t>
+  </si>
+  <si>
+    <t>Elevator Pitch</t>
+  </si>
+  <si>
+    <t>Business Rockstars</t>
+  </si>
+  <si>
+    <t>Plate It!</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>Foodie - Filter &amp; Film Camera</t>
+  </si>
+  <si>
+    <t>Daily Mail: Breaking News</t>
+  </si>
+  <si>
+    <t>Tumblr</t>
+  </si>
+  <si>
+    <t>Art Galleries</t>
+  </si>
+  <si>
+    <t>Book Stores</t>
+  </si>
+  <si>
+    <t>J. Crew</t>
+  </si>
+  <si>
+    <t>Charitable Contributor</t>
+  </si>
+  <si>
+    <t>Working Woman</t>
+  </si>
+  <si>
+    <t>Art Enthusiast</t>
+  </si>
+  <si>
+    <t>New Hampshire residents show a strong mix of financial prowess and creative interests. They engage with investing platforms like Robinhood, tuning into business shows, and following financial news while their passion for music collecting and photography is showcased by their propensity for apps like VSCO and Instagram and their propensity for design-oriented retailers like Pottery Barn and French Connection.</t>
+  </si>
+  <si>
+    <t>SportsCenter</t>
+  </si>
+  <si>
+    <t>Entrepreneur Elevator Pitch</t>
+  </si>
+  <si>
+    <t>Tokyo MX</t>
+  </si>
+  <si>
+    <t>VSCO: Photo &amp; Video Editor</t>
+  </si>
+  <si>
+    <t>Robinhood: Investing for All</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Pottery Barn</t>
+  </si>
+  <si>
+    <t>7-Eleven</t>
+  </si>
+  <si>
+    <t>French Connection</t>
+  </si>
+  <si>
+    <t>Soccer Enthusiasts</t>
+  </si>
+  <si>
+    <t>Financial News Consumers</t>
+  </si>
+  <si>
+    <t>Music Record Collectors</t>
   </si>
 </sst>
 </file>
@@ -847,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -895,6 +1135,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,7 +1362,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1215,132 +1459,132 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AZ2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD2" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:56" ht="14.4">
@@ -1428,7 +1672,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="7">
-        <v>22610727</v>
+        <v>22610726</v>
       </c>
       <c r="F11" s="18">
         <v>76.7</v>
@@ -2208,7 +2452,113 @@
       <c r="I23" s="18">
         <v>9.6</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="J23" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="L23" s="10">
+        <v>470</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="O23" s="10">
+        <v>468</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="R23" s="10">
+        <v>318</v>
+      </c>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="U23" s="10">
+        <v>120</v>
+      </c>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="X23" s="10">
+        <v>119</v>
+      </c>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>109</v>
+      </c>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD23" s="10">
+        <v>461</v>
+      </c>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG23" s="10">
+        <v>295</v>
+      </c>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>248</v>
+      </c>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM23" s="10">
+        <v>227</v>
+      </c>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP23" s="10">
+        <v>192</v>
+      </c>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS23" s="10">
+        <v>452</v>
+      </c>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV23" s="24">
+        <v>276</v>
+      </c>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AY23" s="10">
+        <v>239</v>
+      </c>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="BB23" s="10">
+        <v>236</v>
+      </c>
       <c r="BD23" s="21">
         <v>73.8</v>
       </c>
@@ -2376,12 +2726,98 @@
       <c r="I25" s="18">
         <v>7.9</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L25" s="2">
+        <v>410</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O25" s="2">
+        <v>333</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="R25" s="2">
+        <v>266</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="U25" s="2">
+        <v>124</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="X25" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>114</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>487</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>486</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>402</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>346</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>200</v>
+      </c>
+      <c r="AU25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV25" s="2">
+        <v>257</v>
+      </c>
       <c r="AX25" s="2" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="AY25" s="2">
-        <v>180</v>
+        <v>253</v>
+      </c>
+      <c r="BA25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB25" s="2">
+        <v>221</v>
       </c>
       <c r="BD25" s="21">
         <v>74.3</v>
@@ -2389,7 +2825,7 @@
     </row>
     <row r="26" spans="1:56" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>11</v>
@@ -2402,7 +2838,7 @@
     </row>
     <row r="27" spans="1:56" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>14</v>
@@ -2415,7 +2851,7 @@
     </row>
     <row r="28" spans="1:56" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
@@ -2429,7 +2865,7 @@
     </row>
     <row r="29" spans="1:56" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
@@ -2443,7 +2879,7 @@
     </row>
     <row r="30" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
@@ -2456,7 +2892,7 @@
     </row>
     <row r="31" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
@@ -2480,15 +2916,99 @@
       <c r="I31" s="18">
         <v>2.1</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="J31" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" s="2">
+        <v>485</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O31" s="2">
+        <v>468</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R31" s="2">
+        <v>461</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="U31" s="2">
+        <v>123</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X31" s="2">
+        <v>121</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>118</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>491</v>
+      </c>
+      <c r="AI31" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>494</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>449</v>
+      </c>
+      <c r="AR31" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>384</v>
+      </c>
       <c r="AU31" s="2" t="s">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="AV31" s="2">
-        <v>190</v>
-      </c>
-      <c r="AW31" s="2" t="s">
-        <v>143</v>
+        <v>247</v>
+      </c>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AY31" s="2">
+        <v>219</v>
+      </c>
+      <c r="BA31" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BB31" s="2">
+        <v>208</v>
       </c>
       <c r="BD31" s="21">
         <v>78.8</v>
@@ -2496,7 +3016,7 @@
     </row>
     <row r="32" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>40</v>
@@ -2520,28 +3040,28 @@
         <v>15.5</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L32" s="2">
         <v>366</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O32" s="2">
         <v>301</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R32" s="2">
         <v>275</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U32" s="2">
         <v>127</v>
@@ -2553,13 +3073,13 @@
         <v>125</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA32" s="2">
         <v>123</v>
       </c>
       <c r="AC32" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AD32" s="2">
         <v>423</v>
@@ -2571,7 +3091,7 @@
         <v>418</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AJ32" s="2">
         <v>411</v>
@@ -2583,34 +3103,34 @@
         <v>481</v>
       </c>
       <c r="AO32" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AP32" s="2">
         <v>479</v>
       </c>
       <c r="AR32" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AS32" s="2">
         <v>458</v>
       </c>
       <c r="AU32" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AV32" s="2">
         <v>207</v>
       </c>
       <c r="AW32" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AX32" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AY32" s="2">
         <v>207</v>
       </c>
       <c r="BA32" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="BB32" s="2">
         <v>200</v>
@@ -2621,7 +3141,7 @@
     </row>
     <row r="33" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
@@ -2645,14 +3165,106 @@
       <c r="I33" s="18">
         <v>2.8</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="J33" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L33" s="2">
+        <v>179</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O33" s="2">
+        <v>140</v>
+      </c>
+      <c r="Q33" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="R33" s="2">
+        <v>120</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" s="2">
+        <v>113</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X33" s="2">
+        <v>111</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>106</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>383</v>
+      </c>
+      <c r="AI33" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>283</v>
+      </c>
+      <c r="AO33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>258</v>
+      </c>
+      <c r="AR33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS33" s="2">
+        <v>169</v>
+      </c>
+      <c r="AU33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV33" s="2">
+        <v>160</v>
+      </c>
+      <c r="AX33" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY33" s="2">
+        <v>157</v>
+      </c>
+      <c r="BA33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BB33" s="2">
+        <v>145</v>
+      </c>
       <c r="BD33" s="21">
         <v>74.8</v>
       </c>
     </row>
     <row r="34" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>14</v>
@@ -2665,7 +3277,7 @@
     </row>
     <row r="35" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
@@ -2690,22 +3302,22 @@
         <v>22.1</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L35" s="2">
         <v>457</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O35" s="2">
         <v>422</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="R35" s="2">
         <v>156</v>
@@ -2717,7 +3329,7 @@
         <v>115</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="X35" s="2">
         <v>110</v>
@@ -2729,19 +3341,19 @@
         <v>109</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AD35" s="2">
         <v>474</v>
       </c>
       <c r="AF35" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AG35" s="2">
         <v>442</v>
       </c>
       <c r="AI35" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AJ35" s="2">
         <v>420</v>
@@ -2753,32 +3365,32 @@
         <v>381</v>
       </c>
       <c r="AO35" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AP35" s="2">
         <v>360</v>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AS35" s="2">
         <v>323</v>
       </c>
       <c r="AU35" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AV35" s="2">
         <v>213</v>
       </c>
       <c r="AW35" s="2"/>
       <c r="AX35" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AY35" s="2">
         <v>197</v>
       </c>
       <c r="BA35" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="BB35" s="2">
         <v>181</v>
@@ -2789,7 +3401,7 @@
     </row>
     <row r="36" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>14</v>
@@ -2802,7 +3414,7 @@
     </row>
     <row r="37" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A37" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
@@ -2826,14 +3438,100 @@
       <c r="I37" s="18">
         <v>13.4</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="J37" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" s="2">
+        <v>268</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="R37" s="2">
+        <v>236</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="U37" s="2">
+        <v>115</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="X37" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>494</v>
+      </c>
+      <c r="AI37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL37" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO37" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>348</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>300</v>
+      </c>
+      <c r="AU37" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AV37" s="2">
+        <v>235</v>
+      </c>
+      <c r="AX37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY37" s="2">
+        <v>228</v>
+      </c>
+      <c r="BA37" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BB37" s="2">
+        <v>213</v>
+      </c>
       <c r="BD37" s="21">
         <v>75.3</v>
       </c>
     </row>
     <row r="38" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
@@ -2846,7 +3544,7 @@
     </row>
     <row r="39" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>11</v>
@@ -2860,7 +3558,7 @@
     </row>
     <row r="40" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>14</v>
@@ -2874,7 +3572,7 @@
     </row>
     <row r="41" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>11</v>
@@ -2888,7 +3586,7 @@
     </row>
     <row r="42" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
@@ -2903,7 +3601,7 @@
     </row>
     <row r="43" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
@@ -2913,7 +3611,7 @@
     </row>
     <row r="44" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
@@ -2923,7 +3621,7 @@
     </row>
     <row r="45" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
@@ -2934,7 +3632,7 @@
     </row>
     <row r="46" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
@@ -2944,7 +3642,7 @@
     </row>
     <row r="47" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
@@ -2954,7 +3652,7 @@
     </row>
     <row r="48" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>21</v>
@@ -2977,14 +3675,106 @@
       <c r="I48" s="14">
         <v>0.2</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="J48" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L48" s="2">
+        <v>257</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="O48" s="2">
+        <v>234</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="R48" s="2">
+        <v>217</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U48" s="2">
+        <v>140</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X48" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>132</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG48" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI48" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ48" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL48" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM48" s="2">
+        <v>381</v>
+      </c>
+      <c r="AO48" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP48" s="2">
+        <v>265</v>
+      </c>
+      <c r="AR48" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS48" s="2">
+        <v>260</v>
+      </c>
+      <c r="AU48" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV48" s="2">
+        <v>175</v>
+      </c>
+      <c r="AX48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY48" s="2">
+        <v>167</v>
+      </c>
+      <c r="BA48" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BB48" s="2">
+        <v>162</v>
+      </c>
       <c r="BD48" s="21">
         <v>75.3</v>
       </c>
     </row>
     <row r="49" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>14</v>
@@ -2994,7 +3784,7 @@
     </row>
     <row r="50" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>11</v>
@@ -3004,7 +3794,7 @@
     </row>
     <row r="51" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
@@ -3014,7 +3804,7 @@
     </row>
     <row r="52" spans="1:56" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>11</v>
@@ -6784,6 +7574,9 @@
       <sortCondition ref="A2:A52"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="Q33" r:id="rId1" xr:uid="{E3E4BE9C-D5F2-467E-8E32-30535638CD8A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
